--- a/Code/Results/Cases/Case_4_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,78 +406,81 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,125 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B2">
+        <v>32.28236989049134</v>
+      </c>
+      <c r="C2">
+        <v>25.46105375955732</v>
+      </c>
+      <c r="D2">
+        <v>7.428284610207281</v>
+      </c>
+      <c r="E2">
+        <v>30.78198696580415</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.004353543748084</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>12.45661388770088</v>
+      </c>
+      <c r="O2">
+        <v>36.54339455857993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>29.81536182748093</v>
+      </c>
+      <c r="C3">
+        <v>23.50282738086057</v>
+      </c>
+      <c r="D3">
+        <v>6.866828613352877</v>
+      </c>
+      <c r="E3">
+        <v>28.32950670148227</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.022745633895235</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>12.62495734122636</v>
+      </c>
+      <c r="O3">
+        <v>34.27507172065955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>28.24474573425736</v>
+      </c>
+      <c r="C4">
+        <v>22.25745467537539</v>
+      </c>
+      <c r="D4">
+        <v>6.508937032822669</v>
+      </c>
+      <c r="E4">
+        <v>26.78196546747151</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.034060703891828</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12.73570022967666</v>
+      </c>
+      <c r="O4">
+        <v>32.88090963001722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>27.5898259916158</v>
+      </c>
+      <c r="C5">
+        <v>21.73839086123834</v>
+      </c>
+      <c r="D5">
+        <v>6.359595118315109</v>
+      </c>
+      <c r="E5">
+        <v>26.13955374861662</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.0386897242851</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12.78251579367453</v>
+      </c>
+      <c r="O5">
+        <v>32.31207927263142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>27.48015639704408</v>
+      </c>
+      <c r="C6">
+        <v>21.65148242008028</v>
+      </c>
+      <c r="D6">
+        <v>6.334580640947161</v>
+      </c>
+      <c r="E6">
+        <v>26.03213664165315</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.03945978744343</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>12.7903870307536</v>
+      </c>
+      <c r="O6">
+        <v>32.21757825896529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>28.23597451691596</v>
+      </c>
+      <c r="C7">
+        <v>22.25050213315581</v>
+      </c>
+      <c r="D7">
+        <v>6.506937352654428</v>
+      </c>
+      <c r="E7">
+        <v>26.77335091603322</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.034123044367495</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12.73632497034421</v>
+      </c>
+      <c r="O7">
+        <v>32.87324127294627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>31.4427937251271</v>
+      </c>
+      <c r="C8">
+        <v>24.79429743295594</v>
+      </c>
+      <c r="D8">
+        <v>7.237301850691422</v>
+      </c>
+      <c r="E8">
+        <v>29.94418386411263</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.01069864871344</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>12.51301496862563</v>
+      </c>
+      <c r="O8">
+        <v>35.761271870566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>37.33454989613191</v>
+      </c>
+      <c r="C9">
+        <v>29.48260595276619</v>
+      </c>
+      <c r="D9">
+        <v>8.575479967519808</v>
+      </c>
+      <c r="E9">
+        <v>35.90350653211828</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1.964248981341802</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>12.14339311015519</v>
+      </c>
+      <c r="O9">
+        <v>41.6780077539724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>41.50521490835082</v>
+      </c>
+      <c r="C10">
+        <v>32.81831321280389</v>
+      </c>
+      <c r="D10">
+        <v>9.519516238770446</v>
+      </c>
+      <c r="E10">
+        <v>40.25733495233347</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1.928556609406081</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>11.93165077396623</v>
+      </c>
+      <c r="O10">
+        <v>46.37553119323022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>43.39518004784271</v>
+      </c>
+      <c r="C11">
+        <v>34.33598866145942</v>
+      </c>
+      <c r="D11">
+        <v>9.946204864301869</v>
+      </c>
+      <c r="E11">
+        <v>42.27694581662088</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1.911574353778644</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>11.85431379313733</v>
+      </c>
+      <c r="O11">
+        <v>48.54425275654223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>44.11303768847029</v>
+      </c>
+      <c r="C12">
+        <v>34.91358770706029</v>
+      </c>
+      <c r="D12">
+        <v>10.10805817711225</v>
+      </c>
+      <c r="E12">
+        <v>43.05281379088453</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1.904987566047691</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>11.82848154210427</v>
+      </c>
+      <c r="O12">
+        <v>49.37429102045055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>43.95827404485558</v>
+      </c>
+      <c r="C13">
+        <v>34.78900635388005</v>
+      </c>
+      <c r="D13">
+        <v>10.07317470856457</v>
+      </c>
+      <c r="E13">
+        <v>42.88511334595821</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1.906414053856865</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>11.83387715642859</v>
+      </c>
+      <c r="O13">
+        <v>49.19505176511727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>43.45417265583846</v>
+      </c>
+      <c r="C14">
+        <v>34.38343020076963</v>
+      </c>
+      <c r="D14">
+        <v>9.959510442010414</v>
+      </c>
+      <c r="E14">
+        <v>42.34051584290781</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1.911035922762905</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>11.85211431320235</v>
+      </c>
+      <c r="O14">
+        <v>48.61233442953273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>43.14579308206483</v>
+      </c>
+      <c r="C15">
+        <v>34.13548107146786</v>
+      </c>
+      <c r="D15">
+        <v>9.889947481445915</v>
+      </c>
+      <c r="E15">
+        <v>42.00857578202595</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1.913844896680408</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>11.86376049975234</v>
+      </c>
+      <c r="O15">
+        <v>48.25670018009067</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>41.3818055079764</v>
+      </c>
+      <c r="C16">
+        <v>32.71935683906803</v>
+      </c>
+      <c r="D16">
+        <v>9.491628262733906</v>
+      </c>
+      <c r="E16">
+        <v>40.12655731059256</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1.929647637803831</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>11.93714354355747</v>
+      </c>
+      <c r="O16">
+        <v>46.23476660127777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>40.29976074996618</v>
+      </c>
+      <c r="C17">
+        <v>31.85241930117431</v>
+      </c>
+      <c r="D17">
+        <v>9.246980367855556</v>
+      </c>
+      <c r="E17">
+        <v>38.98530468647141</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1.939121322517386</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>11.98746925958703</v>
+      </c>
+      <c r="O17">
+        <v>45.00507213357686</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>39.67646895700396</v>
+      </c>
+      <c r="C18">
+        <v>31.35358799372721</v>
+      </c>
+      <c r="D18">
+        <v>9.10595554341848</v>
+      </c>
+      <c r="E18">
+        <v>38.33214284639759</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1.944503831275208</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>12.01814785348105</v>
+      </c>
+      <c r="O18">
+        <v>44.30045394398248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>39.46519215795537</v>
+      </c>
+      <c r="C19">
+        <v>31.18458724083794</v>
+      </c>
+      <c r="D19">
+        <v>9.058136595519951</v>
+      </c>
+      <c r="E19">
+        <v>38.11141662451662</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1.946316065227058</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>12.02881426926462</v>
+      </c>
+      <c r="O19">
+        <v>44.06223568814875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>40.41502238608031</v>
+      </c>
+      <c r="C20">
+        <v>31.94470847054933</v>
+      </c>
+      <c r="D20">
+        <v>9.273051425331461</v>
+      </c>
+      <c r="E20">
+        <v>39.10642252209743</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1.938120017079572</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>11.98192818226744</v>
+      </c>
+      <c r="O20">
+        <v>45.13567310152533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>43.60214926669696</v>
+      </c>
+      <c r="C21">
+        <v>34.50245152831329</v>
+      </c>
+      <c r="D21">
+        <v>9.992882414928083</v>
+      </c>
+      <c r="E21">
+        <v>42.50012228698372</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1.909683076978671</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>11.84665688759118</v>
+      </c>
+      <c r="O21">
+        <v>48.78321244636761</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>45.70019890220226</v>
+      </c>
+      <c r="C22">
+        <v>36.19309035858361</v>
+      </c>
+      <c r="D22">
+        <v>10.46544068491261</v>
+      </c>
+      <c r="E22">
+        <v>44.78702522865435</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1.890151601283593</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>11.77891724861764</v>
+      </c>
+      <c r="O22">
+        <v>51.22160742511664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>44.5776593679682</v>
+      </c>
+      <c r="C23">
+        <v>35.28778829779879</v>
+      </c>
+      <c r="D23">
+        <v>10.21274677439555</v>
+      </c>
+      <c r="E23">
+        <v>43.55773226753215</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1.900683665048741</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>11.81287037907635</v>
+      </c>
+      <c r="O23">
+        <v>49.91334723907358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>40.3629165948329</v>
+      </c>
+      <c r="C24">
+        <v>31.90298603732353</v>
+      </c>
+      <c r="D24">
+        <v>9.261265910965855</v>
+      </c>
+      <c r="E24">
+        <v>39.05165631178799</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1.938572903313329</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>11.98442791696559</v>
+      </c>
+      <c r="O24">
+        <v>45.07662138046016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>35.77572068176408</v>
+      </c>
+      <c r="C25">
+        <v>28.23984177984634</v>
+      </c>
+      <c r="D25">
+        <v>8.221904921470072</v>
+      </c>
+      <c r="E25">
+        <v>34.3073985471749</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1.976980580028507</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>12.234491889805</v>
+      </c>
+      <c r="O25">
+        <v>39.95523904038047</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.28236989049134</v>
+        <v>14.49557393002229</v>
       </c>
       <c r="C2">
-        <v>25.46105375955732</v>
+        <v>5.985197004407531</v>
       </c>
       <c r="D2">
-        <v>7.428284610207281</v>
+        <v>9.358108095064811</v>
       </c>
       <c r="E2">
-        <v>30.78198696580415</v>
+        <v>8.440254833454569</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.004353543748084</v>
+        <v>2.128038718886449</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>18.9356483380459</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.81547586180804</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.18949143235278</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.929042075904685</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.45661388770088</v>
+        <v>14.05772133111794</v>
       </c>
       <c r="O2">
-        <v>36.54339455857993</v>
+        <v>20.29957503945958</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>29.81536182748093</v>
+        <v>13.67551597847422</v>
       </c>
       <c r="C3">
-        <v>23.50282738086057</v>
+        <v>5.744962207249625</v>
       </c>
       <c r="D3">
-        <v>6.866828613352877</v>
+        <v>9.128949602334529</v>
       </c>
       <c r="E3">
-        <v>28.32950670148227</v>
+        <v>8.383095839589521</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.022745633895235</v>
+        <v>2.133175398964146</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>19.02388241809568</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.837120673587936</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.57894847341366</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.795031931248232</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.62495734122636</v>
+        <v>14.26449089473794</v>
       </c>
       <c r="O3">
-        <v>34.27507172065955</v>
+        <v>20.28847027520213</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28.24474573425736</v>
+        <v>13.15122063958722</v>
       </c>
       <c r="C4">
-        <v>22.25745467537539</v>
+        <v>5.592010087610883</v>
       </c>
       <c r="D4">
-        <v>6.508937032822669</v>
+        <v>8.990405545064704</v>
       </c>
       <c r="E4">
-        <v>26.78196546747151</v>
+        <v>8.351542030358646</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.034060703891828</v>
+        <v>2.136432249146166</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>19.08932315611395</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.850935608376196</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.1894233540974</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.715099894050905</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.73570022967666</v>
+        <v>14.394340721848</v>
       </c>
       <c r="O4">
-        <v>32.88090963001722</v>
+        <v>20.29493127618126</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>27.5898259916158</v>
+        <v>12.93253974244599</v>
       </c>
       <c r="C5">
-        <v>21.73839086123834</v>
+        <v>5.528353300830637</v>
       </c>
       <c r="D5">
-        <v>6.359595118315109</v>
+        <v>8.934559816980576</v>
       </c>
       <c r="E5">
-        <v>26.13955374861662</v>
+        <v>8.339568170559968</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.0386897242851</v>
+        <v>2.137785854880781</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>19.11872856828177</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.856698780942699</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.02716685187377</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.683145173334364</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.78251579367453</v>
+        <v>14.44800471396848</v>
       </c>
       <c r="O5">
-        <v>32.31207927263142</v>
+        <v>20.30079727387707</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>27.48015639704408</v>
+        <v>12.89593101504937</v>
       </c>
       <c r="C6">
-        <v>21.65148242008028</v>
+        <v>5.517704327200152</v>
       </c>
       <c r="D6">
-        <v>6.334580640947161</v>
+        <v>8.925325668676468</v>
       </c>
       <c r="E6">
-        <v>26.03213664165315</v>
+        <v>8.337633142389665</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.03945978744343</v>
+        <v>2.138012230624557</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>19.12377395555108</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.857663855342174</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.00001695134841</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.677877227053342</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.7903870307536</v>
+        <v>14.4569614452575</v>
       </c>
       <c r="O6">
-        <v>32.21757825896529</v>
+        <v>20.30196347680668</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>28.23597451691596</v>
+        <v>13.14829149031761</v>
       </c>
       <c r="C7">
-        <v>22.25050213315581</v>
+        <v>5.591156904376288</v>
       </c>
       <c r="D7">
-        <v>6.506937352654428</v>
+        <v>8.989649820213085</v>
       </c>
       <c r="E7">
-        <v>26.77335091603322</v>
+        <v>8.351376974097647</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.034123044367495</v>
+        <v>2.136450396707717</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>19.08970876564786</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.851012790174345</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.18724912804287</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.714666403254651</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.73632497034421</v>
+        <v>14.39506139179787</v>
       </c>
       <c r="O7">
-        <v>32.87324127294627</v>
+        <v>20.29499743696061</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31.4427937251271</v>
+        <v>14.21723607147424</v>
       </c>
       <c r="C8">
-        <v>24.79429743295594</v>
+        <v>5.90351769206316</v>
       </c>
       <c r="D8">
-        <v>7.237301850691422</v>
+        <v>9.278686954987993</v>
       </c>
       <c r="E8">
-        <v>29.94418386411263</v>
+        <v>8.419807967236144</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.01069864871344</v>
+        <v>2.129788817446062</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>18.96367550233441</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.822830945723885</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.98210391347408</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.882364030828419</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.51301496862563</v>
+        <v>14.12842857419974</v>
       </c>
       <c r="O8">
-        <v>35.761271870566</v>
+        <v>20.29292631738402</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>37.33454989613191</v>
+        <v>16.14189100748263</v>
       </c>
       <c r="C9">
-        <v>29.48260595276619</v>
+        <v>6.471339338308891</v>
       </c>
       <c r="D9">
-        <v>8.575479967519808</v>
+        <v>9.859679401362339</v>
       </c>
       <c r="E9">
-        <v>35.90350653211828</v>
+        <v>8.582324616023254</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.964248981341802</v>
+        <v>2.117516531194942</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>18.81030573264563</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.771662290397138</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.60999299788508</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.228650646130951</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.14339311015519</v>
+        <v>13.62747211895068</v>
       </c>
       <c r="O9">
-        <v>41.6780077539724</v>
+        <v>20.39894518097593</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>41.50521490835082</v>
+        <v>17.44476930095479</v>
       </c>
       <c r="C10">
-        <v>32.81831321280389</v>
+        <v>6.859715807902271</v>
       </c>
       <c r="D10">
-        <v>9.519516238770446</v>
+        <v>10.29144355768267</v>
       </c>
       <c r="E10">
-        <v>40.25733495233347</v>
+        <v>8.71922769678306</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.928556609406081</v>
+        <v>2.108944901537529</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>18.76106441601603</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.736465486484868</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.73571880539787</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.492066653011111</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.93165077396623</v>
+        <v>13.27124212641915</v>
       </c>
       <c r="O10">
-        <v>46.37553119323022</v>
+        <v>20.55033761016746</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>43.39518004784271</v>
+        <v>18.01250855809133</v>
       </c>
       <c r="C11">
-        <v>34.33598866145942</v>
+        <v>7.029937302820663</v>
       </c>
       <c r="D11">
-        <v>9.946204864301869</v>
+        <v>10.4882172004222</v>
       </c>
       <c r="E11">
-        <v>42.27694581662088</v>
+        <v>8.785340449210649</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.911574353778644</v>
+        <v>2.105133276694213</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>18.75385418645694</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.720951213690432</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.22130461217491</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.613522338670013</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.85431379313733</v>
+        <v>13.11139213180306</v>
       </c>
       <c r="O11">
-        <v>48.54425275654223</v>
+        <v>20.63651624430939</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>44.11303768847029</v>
+        <v>18.22386768050309</v>
       </c>
       <c r="C12">
-        <v>34.91358770706029</v>
+        <v>7.093457178790537</v>
       </c>
       <c r="D12">
-        <v>10.10805817711225</v>
+        <v>10.56272936387693</v>
       </c>
       <c r="E12">
-        <v>43.05281379088453</v>
+        <v>8.81092826575672</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.904987566047691</v>
+        <v>2.103701754750988</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>18.75342929796716</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.715145902656466</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.40141775163912</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.659721964052496</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.82848154210427</v>
+        <v>13.05114642748948</v>
       </c>
       <c r="O12">
-        <v>49.37429102045055</v>
+        <v>20.67174724905525</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>43.95827404485558</v>
+        <v>18.1785097301001</v>
       </c>
       <c r="C13">
-        <v>34.78900635388005</v>
+        <v>7.07981894345347</v>
       </c>
       <c r="D13">
-        <v>10.07317470856457</v>
+        <v>10.54668270897569</v>
       </c>
       <c r="E13">
-        <v>42.88511334595821</v>
+        <v>8.805392895791611</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.906414053856865</v>
+        <v>2.104009543629525</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>18.75341630261319</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.716393114765383</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.36279399655603</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.649763250037269</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.83387715642859</v>
+        <v>13.06410920159554</v>
       </c>
       <c r="O13">
-        <v>49.19505176511727</v>
+        <v>20.66404241361873</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>43.45417265583846</v>
+        <v>18.02997016738596</v>
       </c>
       <c r="C14">
-        <v>34.38343020076963</v>
+        <v>7.035181994602449</v>
       </c>
       <c r="D14">
-        <v>9.959510442010414</v>
+        <v>10.4943476835784</v>
       </c>
       <c r="E14">
-        <v>42.34051584290781</v>
+        <v>8.787434500694529</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.911035922762905</v>
+        <v>2.105015271319327</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>18.75377231918511</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.720472223102938</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.23619787415083</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.61731920854878</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.85211431320235</v>
+        <v>13.10643013014798</v>
       </c>
       <c r="O14">
-        <v>48.61233442953273</v>
+        <v>20.63936205839621</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>43.14579308206483</v>
+        <v>17.93851148128135</v>
       </c>
       <c r="C15">
-        <v>34.13548107146786</v>
+        <v>7.007717992688248</v>
       </c>
       <c r="D15">
-        <v>9.889947481445915</v>
+        <v>10.46228924354439</v>
       </c>
       <c r="E15">
-        <v>42.00857578202595</v>
+        <v>8.776506416899785</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.913844896680408</v>
+        <v>2.105632829838873</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>18.75429428535222</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.722979803415059</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.15816479760919</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.59747248665084</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.86376049975234</v>
+        <v>13.13238923415346</v>
       </c>
       <c r="O15">
-        <v>48.25670018009067</v>
+        <v>20.62458601882791</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>41.3818055079764</v>
+        <v>17.4071600199043</v>
       </c>
       <c r="C16">
-        <v>32.71935683906803</v>
+        <v>6.848460499647527</v>
       </c>
       <c r="D16">
-        <v>9.491628262733906</v>
+        <v>10.27858649307623</v>
       </c>
       <c r="E16">
-        <v>40.12655731059256</v>
+        <v>8.714984328276</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.929647637803831</v>
+        <v>2.109195701190513</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>18.76185156081637</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.737489223780054</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.703454913531</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.484159627035611</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.93714354355747</v>
+        <v>13.28173042316905</v>
       </c>
       <c r="O16">
-        <v>46.23476660127777</v>
+        <v>20.54506320245586</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>40.29976074996618</v>
+        <v>17.07476630294965</v>
       </c>
       <c r="C17">
-        <v>31.85241930117431</v>
+        <v>6.74909878973788</v>
       </c>
       <c r="D17">
-        <v>9.246980367855556</v>
+        <v>10.16594345818162</v>
       </c>
       <c r="E17">
-        <v>38.98530468647141</v>
+        <v>8.678225521774758</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.939121322517386</v>
+        <v>2.111403340268791</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>18.77046332257038</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.746516266509603</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.41774585718594</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.415042742831154</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.98746925958703</v>
+        <v>13.37388898124522</v>
       </c>
       <c r="O17">
-        <v>45.00507213357686</v>
+        <v>20.50078912851106</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>39.67646895700396</v>
+        <v>16.88123549014553</v>
       </c>
       <c r="C18">
-        <v>31.35358799372721</v>
+        <v>6.691341545359107</v>
       </c>
       <c r="D18">
-        <v>9.10595554341848</v>
+        <v>10.10119111110978</v>
       </c>
       <c r="E18">
-        <v>38.33214284639759</v>
+        <v>8.657443768491868</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.944503831275208</v>
+        <v>2.112681413469963</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>18.77683885885041</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.751755271384832</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.25091527429657</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.375443137241009</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.01814785348105</v>
+        <v>13.42710522519744</v>
       </c>
       <c r="O18">
-        <v>44.30045394398248</v>
+        <v>20.47694673205244</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>39.46519215795537</v>
+        <v>16.81530787849969</v>
       </c>
       <c r="C19">
-        <v>31.18458724083794</v>
+        <v>6.6716821057144</v>
       </c>
       <c r="D19">
-        <v>9.058136595519951</v>
+        <v>10.07927515617372</v>
       </c>
       <c r="E19">
-        <v>38.11141662451662</v>
+        <v>8.65046938001613</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.946316065227058</v>
+        <v>2.113115594225822</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>18.77923814790383</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.75353721671041</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.19399889072005</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.36206279163693</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.02881426926462</v>
+        <v>13.44516013927483</v>
       </c>
       <c r="O19">
-        <v>44.06223568814875</v>
+        <v>20.46914952627963</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>40.41502238608031</v>
+        <v>17.11039343812785</v>
       </c>
       <c r="C20">
-        <v>31.94470847054933</v>
+        <v>6.759738935139802</v>
       </c>
       <c r="D20">
-        <v>9.273051425331461</v>
+        <v>10.17793108540828</v>
       </c>
       <c r="E20">
-        <v>39.10642252209743</v>
+        <v>8.682101195521822</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.938120017079572</v>
+        <v>2.11116747981435</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>18.76939851861802</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.745550482761841</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.44841831957763</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.422384553333728</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.98192818226744</v>
+        <v>13.36405712142873</v>
       </c>
       <c r="O20">
-        <v>45.13567310152533</v>
+        <v>20.50533343120137</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>43.60214926669696</v>
+        <v>18.0736986546743</v>
       </c>
       <c r="C21">
-        <v>34.50245152831329</v>
+        <v>7.048318508079275</v>
       </c>
       <c r="D21">
-        <v>9.992882414928083</v>
+        <v>10.50972019667521</v>
       </c>
       <c r="E21">
-        <v>42.50012228698372</v>
+        <v>8.792694320941203</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.909683076978671</v>
+        <v>2.104719549085338</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>18.75360419583192</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.719272216121411</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.27348410996886</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.626843397242883</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.84665688759118</v>
+        <v>13.09399193686623</v>
       </c>
       <c r="O21">
-        <v>48.78321244636761</v>
+        <v>20.64653994073117</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>45.70019890220226</v>
+        <v>18.68209950454231</v>
       </c>
       <c r="C22">
-        <v>36.19309035858361</v>
+        <v>7.231444971375433</v>
       </c>
       <c r="D22">
-        <v>10.46544068491261</v>
+        <v>10.7265326044372</v>
       </c>
       <c r="E22">
-        <v>44.78702522865435</v>
+        <v>8.868193014011325</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.890151601283593</v>
+        <v>2.10057418857283</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>18.75677839498017</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.702502658410205</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.790773752454</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.761664526811868</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.77891724861764</v>
+        <v>12.91914039846376</v>
       </c>
       <c r="O22">
-        <v>51.22160742511664</v>
+        <v>20.75401318153074</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>44.5776593679682</v>
+        <v>18.35933200467108</v>
       </c>
       <c r="C23">
-        <v>35.28778829779879</v>
+        <v>7.134210609558593</v>
       </c>
       <c r="D23">
-        <v>10.21274677439555</v>
+        <v>10.61083483679537</v>
       </c>
       <c r="E23">
-        <v>43.55773226753215</v>
+        <v>8.827603141367826</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.900683665048741</v>
+        <v>2.102780615239165</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>18.75380838596421</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.711416479206762</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.51667856242195</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.689606946745311</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.81287037907635</v>
+        <v>13.01232137251242</v>
       </c>
       <c r="O23">
-        <v>49.91334723907358</v>
+        <v>20.69522778654908</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>40.3629165948329</v>
+        <v>17.09429398576198</v>
       </c>
       <c r="C24">
-        <v>31.90298603732353</v>
+        <v>6.754930495744597</v>
       </c>
       <c r="D24">
-        <v>9.261265910965855</v>
+        <v>10.1725114512087</v>
       </c>
       <c r="E24">
-        <v>39.05165631178799</v>
+        <v>8.68034790903965</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.938572903313329</v>
+        <v>2.111274084634993</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>18.76987548855902</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.745986960090609</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.43455931589689</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.419064893225947</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.98442791696559</v>
+        <v>13.36850137703642</v>
       </c>
       <c r="O24">
-        <v>45.07662138046016</v>
+        <v>20.50327394112406</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>35.77572068176408</v>
+        <v>15.64037931086365</v>
       </c>
       <c r="C25">
-        <v>28.23984177984634</v>
+        <v>6.322697914590718</v>
       </c>
       <c r="D25">
-        <v>8.221904921470072</v>
+        <v>9.701385792010313</v>
       </c>
       <c r="E25">
-        <v>34.3073985471749</v>
+        <v>8.535298933565636</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.976980580028507</v>
+        <v>2.120755568159939</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>18.84112223718026</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.785076409976929</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.17163810625592</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.133273826196005</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.234491889805</v>
+        <v>13.76080206422361</v>
       </c>
       <c r="O25">
-        <v>39.95523904038047</v>
+        <v>20.35781527273235</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.49557393002229</v>
+        <v>15.93462456970575</v>
       </c>
       <c r="C2">
-        <v>5.985197004407531</v>
+        <v>5.280088797411882</v>
       </c>
       <c r="D2">
-        <v>9.358108095064811</v>
+        <v>13.61372221487566</v>
       </c>
       <c r="E2">
-        <v>8.440254833454569</v>
+        <v>13.86365087178498</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.128038718886449</v>
+        <v>3.711066082556555</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.9356483380459</v>
+        <v>30.10502409093299</v>
       </c>
       <c r="J2">
-        <v>4.81547586180804</v>
+        <v>8.353572073523754</v>
       </c>
       <c r="K2">
-        <v>11.18949143235278</v>
+        <v>12.98561771456335</v>
       </c>
       <c r="L2">
-        <v>7.929042075904685</v>
+        <v>12.65939286758939</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.05772133111794</v>
+        <v>21.76002348818933</v>
       </c>
       <c r="O2">
-        <v>20.29957503945958</v>
+        <v>31.66240120664786</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.67551597847422</v>
+        <v>15.76959921898604</v>
       </c>
       <c r="C3">
-        <v>5.744962207249625</v>
+        <v>5.18697315462554</v>
       </c>
       <c r="D3">
-        <v>9.128949602334529</v>
+        <v>13.60705870072544</v>
       </c>
       <c r="E3">
-        <v>8.383095839589521</v>
+        <v>13.88313094264151</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.133175398964146</v>
+        <v>3.713048051616156</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.02388241809568</v>
+        <v>30.19097428770155</v>
       </c>
       <c r="J3">
-        <v>4.837120673587936</v>
+        <v>8.362569526578678</v>
       </c>
       <c r="K3">
-        <v>10.57894847341366</v>
+        <v>12.87267849026182</v>
       </c>
       <c r="L3">
-        <v>7.795031931248232</v>
+        <v>12.66414272467651</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.26449089473794</v>
+        <v>21.82182743811731</v>
       </c>
       <c r="O3">
-        <v>20.28847027520213</v>
+        <v>31.74084142498133</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.15122063958722</v>
+        <v>15.67039747458705</v>
       </c>
       <c r="C4">
-        <v>5.592010087610883</v>
+        <v>5.12812818411575</v>
       </c>
       <c r="D4">
-        <v>8.990405545064704</v>
+        <v>13.60535356381548</v>
       </c>
       <c r="E4">
-        <v>8.351542030358646</v>
+        <v>13.89686848301197</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.136432249146166</v>
+        <v>3.714330535253257</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.08932315611395</v>
+        <v>30.24832114261384</v>
       </c>
       <c r="J4">
-        <v>4.850935608376196</v>
+        <v>8.368406131399338</v>
       </c>
       <c r="K4">
-        <v>10.1894233540974</v>
+        <v>12.80510504923499</v>
       </c>
       <c r="L4">
-        <v>7.715099894050905</v>
+        <v>12.66878799187089</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.394340721848</v>
+        <v>21.86155322336774</v>
       </c>
       <c r="O4">
-        <v>20.29493127618126</v>
+        <v>31.79428019868575</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.93253974244599</v>
+        <v>15.63054865409754</v>
       </c>
       <c r="C5">
-        <v>5.528353300830637</v>
+        <v>5.103743146874624</v>
       </c>
       <c r="D5">
-        <v>8.934559816980576</v>
+        <v>13.60526065224379</v>
       </c>
       <c r="E5">
-        <v>8.339568170559968</v>
+        <v>13.90291387127541</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.137785854880781</v>
+        <v>3.714869691400505</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.11872856828177</v>
+        <v>30.27284017480415</v>
       </c>
       <c r="J5">
-        <v>4.856698780942699</v>
+        <v>8.370863315450205</v>
       </c>
       <c r="K5">
-        <v>10.02716685187377</v>
+        <v>12.77804010356867</v>
       </c>
       <c r="L5">
-        <v>7.683145173334364</v>
+        <v>12.67111664690625</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.44800471396848</v>
+        <v>21.87819017832594</v>
       </c>
       <c r="O5">
-        <v>20.30079727387707</v>
+        <v>31.81738269274426</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.89593101504937</v>
+        <v>15.62396783938127</v>
       </c>
       <c r="C6">
-        <v>5.517704327200152</v>
+        <v>5.099670009274392</v>
       </c>
       <c r="D6">
-        <v>8.925325668676468</v>
+        <v>13.60528162982889</v>
       </c>
       <c r="E6">
-        <v>8.337633142389665</v>
+        <v>13.90394472762228</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.138012230624557</v>
+        <v>3.714960217974265</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.12377395555108</v>
+        <v>30.27698097531408</v>
       </c>
       <c r="J6">
-        <v>4.857663855342174</v>
+        <v>8.3712760903268</v>
       </c>
       <c r="K6">
-        <v>10.00001695134841</v>
+        <v>12.77357523567883</v>
       </c>
       <c r="L6">
-        <v>7.677877227053342</v>
+        <v>12.67152965709368</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.4569614452575</v>
+        <v>21.88097985116003</v>
       </c>
       <c r="O6">
-        <v>20.30196347680668</v>
+        <v>31.82129888676132</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.14829149031761</v>
+        <v>15.66985766910671</v>
       </c>
       <c r="C7">
-        <v>5.591156904376288</v>
+        <v>5.12780093930836</v>
       </c>
       <c r="D7">
-        <v>8.989649820213085</v>
+        <v>13.60534987123738</v>
       </c>
       <c r="E7">
-        <v>8.351376974097647</v>
+        <v>13.89694820183334</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.136450396707717</v>
+        <v>3.714337739489521</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.08970876564786</v>
+        <v>30.24864715997947</v>
       </c>
       <c r="J7">
-        <v>4.851012790174345</v>
+        <v>8.36843895079803</v>
       </c>
       <c r="K7">
-        <v>10.18724912804287</v>
+        <v>12.8047380976079</v>
       </c>
       <c r="L7">
-        <v>7.714666403254651</v>
+        <v>12.66881763174827</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.39506139179787</v>
+        <v>21.8617757779823</v>
       </c>
       <c r="O7">
-        <v>20.29499743696061</v>
+        <v>31.79458640041649</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.21723607147424</v>
+        <v>15.87730867652874</v>
       </c>
       <c r="C8">
-        <v>5.90351769206316</v>
+        <v>5.248338306956781</v>
       </c>
       <c r="D8">
-        <v>9.278686954987993</v>
+        <v>13.61093058367573</v>
       </c>
       <c r="E8">
-        <v>8.419807967236144</v>
+        <v>13.86999913686068</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.129788817446062</v>
+        <v>3.711735892283512</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.96367550233441</v>
+        <v>30.13371045087555</v>
       </c>
       <c r="J8">
-        <v>4.822830945723885</v>
+        <v>8.356609752035402</v>
       </c>
       <c r="K8">
-        <v>10.98210391347408</v>
+        <v>12.94632455822728</v>
       </c>
       <c r="L8">
-        <v>7.882364030828419</v>
+        <v>12.66067239320373</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.12842857419974</v>
+        <v>21.78096527414563</v>
       </c>
       <c r="O8">
-        <v>20.29292631738402</v>
+        <v>31.68835176597281</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.14189100748263</v>
+        <v>16.29906716232697</v>
       </c>
       <c r="C9">
-        <v>6.471339338308891</v>
+        <v>5.470821985966389</v>
       </c>
       <c r="D9">
-        <v>9.859679401362339</v>
+        <v>13.64071386311481</v>
       </c>
       <c r="E9">
-        <v>8.582324616023254</v>
+        <v>13.83122810336316</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.117516531194942</v>
+        <v>3.70715141643069</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.81030573264563</v>
+        <v>29.94461470672587</v>
       </c>
       <c r="J9">
-        <v>4.771662290397138</v>
+        <v>8.335878819688501</v>
       </c>
       <c r="K9">
-        <v>12.60999299788508</v>
+        <v>13.23684323034009</v>
       </c>
       <c r="L9">
-        <v>8.228650646130951</v>
+        <v>12.65837256539859</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.62747211895068</v>
+        <v>21.63654242800096</v>
       </c>
       <c r="O9">
-        <v>20.39894518097593</v>
+        <v>31.52193138004179</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.44476930095479</v>
+        <v>16.61544747854923</v>
       </c>
       <c r="C10">
-        <v>6.859715807902271</v>
+        <v>5.625027991884597</v>
       </c>
       <c r="D10">
-        <v>10.29144355768267</v>
+        <v>13.6739371170584</v>
       </c>
       <c r="E10">
-        <v>8.71922769678306</v>
+        <v>13.81129406938124</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.108944901537529</v>
+        <v>3.704095550603129</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.76106441601603</v>
+        <v>29.82782470256025</v>
       </c>
       <c r="J10">
-        <v>4.736465486484868</v>
+        <v>8.322136514173573</v>
       </c>
       <c r="K10">
-        <v>13.73571880539787</v>
+        <v>13.45649893834834</v>
       </c>
       <c r="L10">
-        <v>8.492066653011111</v>
+        <v>12.66495361832119</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.27124212641915</v>
+        <v>21.53891160936789</v>
       </c>
       <c r="O10">
-        <v>20.55033761016746</v>
+        <v>31.42526231826379</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.01250855809133</v>
+        <v>16.76023492442525</v>
       </c>
       <c r="C11">
-        <v>7.029937302820663</v>
+        <v>5.693019911025234</v>
       </c>
       <c r="D11">
-        <v>10.4882172004222</v>
+        <v>13.69147698859853</v>
       </c>
       <c r="E11">
-        <v>8.785340449210649</v>
+        <v>13.80407499483391</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.105133276694213</v>
+        <v>3.702772484775671</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.75385418645694</v>
+        <v>29.77950354834237</v>
       </c>
       <c r="J11">
-        <v>4.720951213690432</v>
+        <v>8.316204927502675</v>
       </c>
       <c r="K11">
-        <v>14.22130461217491</v>
+        <v>13.55741986228975</v>
       </c>
       <c r="L11">
-        <v>8.613522338670013</v>
+        <v>12.66972730294304</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.11139213180306</v>
+        <v>21.49631900903817</v>
       </c>
       <c r="O11">
-        <v>20.63651624430939</v>
+        <v>31.38685341796693</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.22386768050309</v>
+        <v>16.81514007253747</v>
       </c>
       <c r="C12">
-        <v>7.093457178790537</v>
+        <v>5.718444779020479</v>
       </c>
       <c r="D12">
-        <v>10.56272936387693</v>
+        <v>13.69846412822311</v>
       </c>
       <c r="E12">
-        <v>8.81092826575672</v>
+        <v>13.80160648700689</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.103701754750988</v>
+        <v>3.702281064923874</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.75342929796716</v>
+        <v>29.76189708672057</v>
       </c>
       <c r="J12">
-        <v>4.715145902656466</v>
+        <v>8.314004548390148</v>
       </c>
       <c r="K12">
-        <v>14.40141775163912</v>
+        <v>13.5957495605784</v>
       </c>
       <c r="L12">
-        <v>8.659721964052496</v>
+        <v>12.67178932627472</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.05114642748948</v>
+        <v>21.48045067570119</v>
       </c>
       <c r="O12">
-        <v>20.67174724905525</v>
+        <v>31.3731100100103</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.1785097301001</v>
+        <v>16.80331257185509</v>
       </c>
       <c r="C13">
-        <v>7.07981894345347</v>
+        <v>5.71298359140306</v>
       </c>
       <c r="D13">
-        <v>10.54668270897569</v>
+        <v>13.69694403412874</v>
       </c>
       <c r="E13">
-        <v>8.805392895791611</v>
+        <v>13.80212634109555</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.104009543629525</v>
+        <v>3.702386474921991</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.75341630261319</v>
+        <v>29.76565818248621</v>
       </c>
       <c r="J13">
-        <v>4.716393114765383</v>
+        <v>8.31447640648592</v>
       </c>
       <c r="K13">
-        <v>14.36279399655603</v>
+        <v>13.58749002617045</v>
       </c>
       <c r="L13">
-        <v>8.649763250037269</v>
+        <v>12.67133394827147</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.06410920159554</v>
+        <v>21.48385663532284</v>
       </c>
       <c r="O13">
-        <v>20.66404241361873</v>
+        <v>31.3760342537826</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.02997016738596</v>
+        <v>16.76475072242849</v>
       </c>
       <c r="C14">
-        <v>7.035181994602449</v>
+        <v>5.695118153493815</v>
       </c>
       <c r="D14">
-        <v>10.4943476835784</v>
+        <v>13.69204492962082</v>
       </c>
       <c r="E14">
-        <v>8.787434500694529</v>
+        <v>13.80386659836655</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.105015271319327</v>
+        <v>3.702731863309435</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.75377231918511</v>
+        <v>29.77804118880246</v>
       </c>
       <c r="J14">
-        <v>4.720472223102938</v>
+        <v>8.316022984610886</v>
       </c>
       <c r="K14">
-        <v>14.23619787415083</v>
+        <v>13.5605711762692</v>
       </c>
       <c r="L14">
-        <v>8.61731920854878</v>
+        <v>12.66989185936252</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.10643013014798</v>
+        <v>21.49500829638568</v>
       </c>
       <c r="O14">
-        <v>20.63936205839621</v>
+        <v>31.38570667809467</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.93851148128135</v>
+        <v>16.74113915488745</v>
       </c>
       <c r="C15">
-        <v>7.007717992688248</v>
+        <v>5.684132754530022</v>
       </c>
       <c r="D15">
-        <v>10.46228924354439</v>
+        <v>13.68908892150937</v>
       </c>
       <c r="E15">
-        <v>8.776506416899785</v>
+        <v>13.80496707155653</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.105632829838873</v>
+        <v>3.702944672021871</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.75429428535222</v>
+        <v>29.78571623152056</v>
       </c>
       <c r="J15">
-        <v>4.722979803415059</v>
+        <v>8.316976264569693</v>
       </c>
       <c r="K15">
-        <v>14.15816479760919</v>
+        <v>13.54409643499997</v>
       </c>
       <c r="L15">
-        <v>8.59747248665084</v>
+        <v>12.66904160966672</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.13238923415346</v>
+        <v>21.50187290870104</v>
       </c>
       <c r="O15">
-        <v>20.62458601882791</v>
+        <v>31.3917356792644</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.4071600199043</v>
+        <v>16.60599864188998</v>
       </c>
       <c r="C16">
-        <v>6.848460499647527</v>
+        <v>5.620540109118602</v>
       </c>
       <c r="D16">
-        <v>10.27858649307623</v>
+        <v>13.67283935816797</v>
       </c>
       <c r="E16">
-        <v>8.714984328276</v>
+        <v>13.81180300238286</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.109195701190513</v>
+        <v>3.704183361507673</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.76185156081637</v>
+        <v>29.83107937511987</v>
       </c>
       <c r="J16">
-        <v>4.737489223780054</v>
+        <v>8.322530575572094</v>
       </c>
       <c r="K16">
-        <v>13.703454913531</v>
+        <v>13.4499210061971</v>
       </c>
       <c r="L16">
-        <v>8.484159627035611</v>
+        <v>12.66467732801658</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.28173042316905</v>
+        <v>21.54173166130712</v>
       </c>
       <c r="O16">
-        <v>20.54506320245586</v>
+        <v>31.42788450835828</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.07476630294965</v>
+        <v>16.52328210787208</v>
       </c>
       <c r="C17">
-        <v>6.74909878973788</v>
+        <v>5.580966797271345</v>
       </c>
       <c r="D17">
-        <v>10.16594345818162</v>
+        <v>13.66348968056657</v>
       </c>
       <c r="E17">
-        <v>8.678225521774758</v>
+        <v>13.81646973127547</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.111403340268791</v>
+        <v>3.704960400160537</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.77046332257038</v>
+        <v>29.86013975632687</v>
       </c>
       <c r="J17">
-        <v>4.746516266509603</v>
+        <v>8.326019737787263</v>
       </c>
       <c r="K17">
-        <v>13.41774585718594</v>
+        <v>13.39238148210542</v>
       </c>
       <c r="L17">
-        <v>8.415042742831154</v>
+        <v>12.66245475341928</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.37388898124522</v>
+        <v>21.56664905914334</v>
       </c>
       <c r="O17">
-        <v>20.50078912851106</v>
+        <v>31.45148690832341</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.88123549014553</v>
+        <v>16.47578990025054</v>
       </c>
       <c r="C18">
-        <v>6.691341545359107</v>
+        <v>5.558002900616363</v>
       </c>
       <c r="D18">
-        <v>10.10119111110978</v>
+        <v>13.65834062631344</v>
       </c>
       <c r="E18">
-        <v>8.657443768491868</v>
+        <v>13.81932799330822</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.112681413469963</v>
+        <v>3.705413647306889</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.77683885885041</v>
+        <v>29.87730697095618</v>
       </c>
       <c r="J18">
-        <v>4.751755271384832</v>
+        <v>8.328056730566919</v>
       </c>
       <c r="K18">
-        <v>13.25091527429657</v>
+        <v>13.35938206991641</v>
       </c>
       <c r="L18">
-        <v>8.375443137241009</v>
+        <v>12.66134402766567</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.42710522519744</v>
+        <v>21.58115227787161</v>
       </c>
       <c r="O18">
-        <v>20.47694673205244</v>
+        <v>31.46558627598909</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.81530787849969</v>
+        <v>16.45972574957942</v>
       </c>
       <c r="C19">
-        <v>6.6716821057144</v>
+        <v>5.550193340002991</v>
       </c>
       <c r="D19">
-        <v>10.07927515617372</v>
+        <v>13.65663662205822</v>
       </c>
       <c r="E19">
-        <v>8.65046938001613</v>
+        <v>13.82032567065192</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.113115594225822</v>
+        <v>3.705568195063018</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.77923814790383</v>
+        <v>29.88319719010246</v>
       </c>
       <c r="J19">
-        <v>4.75353721671041</v>
+        <v>8.328751600742025</v>
       </c>
       <c r="K19">
-        <v>13.19399889072005</v>
+        <v>13.34822641817334</v>
       </c>
       <c r="L19">
-        <v>8.36206279163693</v>
+        <v>12.66099679467977</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.44516013927483</v>
+        <v>21.58609229102431</v>
       </c>
       <c r="O19">
-        <v>20.46914952627963</v>
+        <v>31.47045003287089</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.11039343812785</v>
+        <v>16.53207905670786</v>
       </c>
       <c r="C20">
-        <v>6.759738935139802</v>
+        <v>5.585200478220933</v>
       </c>
       <c r="D20">
-        <v>10.17793108540828</v>
+        <v>13.66446133322208</v>
       </c>
       <c r="E20">
-        <v>8.682101195521822</v>
+        <v>13.81595493788302</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.11116747981435</v>
+        <v>3.704877029826272</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.76939851861802</v>
+        <v>29.85699939876709</v>
       </c>
       <c r="J20">
-        <v>4.745550482761841</v>
+        <v>8.325645194849193</v>
       </c>
       <c r="K20">
-        <v>13.44841831957763</v>
+        <v>13.39849696843376</v>
       </c>
       <c r="L20">
-        <v>8.422384553333728</v>
+        <v>12.66267401146192</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.36405712142873</v>
+        <v>21.56397882986531</v>
       </c>
       <c r="O20">
-        <v>20.50533343120137</v>
+        <v>31.44892016572605</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.0736986546743</v>
+        <v>16.7760755468081</v>
       </c>
       <c r="C21">
-        <v>7.048318508079275</v>
+        <v>5.7003745017845</v>
       </c>
       <c r="D21">
-        <v>10.50972019667521</v>
+        <v>13.69347457895436</v>
       </c>
       <c r="E21">
-        <v>8.792694320941203</v>
+        <v>13.80334825095959</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.104719549085338</v>
+        <v>3.702630154295949</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.75360419583192</v>
+        <v>29.77438522346367</v>
       </c>
       <c r="J21">
-        <v>4.719272216121411</v>
+        <v>8.315567476233031</v>
       </c>
       <c r="K21">
-        <v>14.27348410996886</v>
+        <v>13.56847506668637</v>
       </c>
       <c r="L21">
-        <v>8.626843397242883</v>
+        <v>12.67030854684839</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.09399193686623</v>
+        <v>21.4917257209976</v>
       </c>
       <c r="O21">
-        <v>20.64653994073117</v>
+        <v>31.38284390245489</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.68209950454231</v>
+        <v>16.93597046917232</v>
       </c>
       <c r="C22">
-        <v>7.231444971375433</v>
+        <v>5.773764354555144</v>
       </c>
       <c r="D22">
-        <v>10.7265326044372</v>
+        <v>13.71444637500313</v>
       </c>
       <c r="E22">
-        <v>8.868193014011325</v>
+        <v>13.79665447556553</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.10057418857283</v>
+        <v>3.701217605202125</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.75677839498017</v>
+        <v>29.724424089681</v>
       </c>
       <c r="J22">
-        <v>4.702502658410205</v>
+        <v>8.309247872286443</v>
       </c>
       <c r="K22">
-        <v>14.790773752454</v>
+        <v>13.6802109931041</v>
       </c>
       <c r="L22">
-        <v>8.761664526811868</v>
+        <v>12.67677976189136</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.91914039846376</v>
+        <v>21.44602234327217</v>
       </c>
       <c r="O22">
-        <v>20.75401318153074</v>
+        <v>31.34432957602853</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.35933200467108</v>
+        <v>16.85060765353452</v>
       </c>
       <c r="C23">
-        <v>7.134210609558593</v>
+        <v>5.734770871437123</v>
       </c>
       <c r="D23">
-        <v>10.61083483679537</v>
+        <v>13.70307073976918</v>
       </c>
       <c r="E23">
-        <v>8.827603141367826</v>
+        <v>13.800085905108</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.102780615239165</v>
+        <v>3.701966408566471</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.75380838596421</v>
+        <v>29.75072021948512</v>
       </c>
       <c r="J23">
-        <v>4.711416479206762</v>
+        <v>8.312596423821649</v>
       </c>
       <c r="K23">
-        <v>14.51667856242195</v>
+        <v>13.62052639596904</v>
       </c>
       <c r="L23">
-        <v>8.689606946745311</v>
+        <v>12.67319095317551</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.01232137251242</v>
+        <v>21.4702765656118</v>
       </c>
       <c r="O23">
-        <v>20.69522778654908</v>
+        <v>31.36445783693558</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.09429398576198</v>
+        <v>16.52810175745483</v>
       </c>
       <c r="C24">
-        <v>6.754930495744597</v>
+        <v>5.583287092598612</v>
       </c>
       <c r="D24">
-        <v>10.1725114512087</v>
+        <v>13.66402134419842</v>
       </c>
       <c r="E24">
-        <v>8.68034790903965</v>
+        <v>13.81618712989749</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.111274084634993</v>
+        <v>3.704914701249916</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.76987548855902</v>
+        <v>29.85841772151823</v>
       </c>
       <c r="J24">
-        <v>4.745986960090609</v>
+        <v>8.325814429050531</v>
       </c>
       <c r="K24">
-        <v>13.43455931589689</v>
+        <v>13.39573190296922</v>
       </c>
       <c r="L24">
-        <v>8.419064893225947</v>
+        <v>12.66257436440164</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.36850137703642</v>
+        <v>21.56518548634595</v>
       </c>
       <c r="O24">
-        <v>20.50327394112406</v>
+        <v>31.45007893907187</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.64037931086365</v>
+        <v>16.18363700018467</v>
       </c>
       <c r="C25">
-        <v>6.322697914590718</v>
+        <v>5.412205201079789</v>
       </c>
       <c r="D25">
-        <v>9.701385792010313</v>
+        <v>13.63065336913754</v>
       </c>
       <c r="E25">
-        <v>8.535298933565636</v>
+        <v>13.84021266180868</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.120755568159939</v>
+        <v>3.70833655151411</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.84112223718026</v>
+        <v>29.99188316217996</v>
       </c>
       <c r="J25">
-        <v>4.785076409976929</v>
+        <v>8.341224599031893</v>
       </c>
       <c r="K25">
-        <v>12.17163810625592</v>
+        <v>13.15703948236856</v>
       </c>
       <c r="L25">
-        <v>8.133273826196005</v>
+        <v>12.65753714096026</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.76080206422361</v>
+        <v>21.67411784793859</v>
       </c>
       <c r="O25">
-        <v>20.35781527273235</v>
+        <v>31.5624603262518</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.93462456970575</v>
+        <v>14.49557393002231</v>
       </c>
       <c r="C2">
-        <v>5.280088797411882</v>
+        <v>5.985197004407731</v>
       </c>
       <c r="D2">
-        <v>13.61372221487566</v>
+        <v>9.358108095064788</v>
       </c>
       <c r="E2">
-        <v>13.86365087178498</v>
+        <v>8.440254833454624</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.711066082556555</v>
+        <v>2.128038718886448</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.10502409093299</v>
+        <v>18.93564833804592</v>
       </c>
       <c r="J2">
-        <v>8.353572073523754</v>
+        <v>4.815475861808106</v>
       </c>
       <c r="K2">
-        <v>12.98561771456335</v>
+        <v>11.18949143235277</v>
       </c>
       <c r="L2">
-        <v>12.65939286758939</v>
+        <v>7.929042075904707</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.76002348818933</v>
+        <v>14.05772133111794</v>
       </c>
       <c r="O2">
-        <v>31.66240120664786</v>
+        <v>20.29957503945955</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.76959921898604</v>
+        <v>13.67551597847424</v>
       </c>
       <c r="C3">
-        <v>5.18697315462554</v>
+        <v>5.744962207249593</v>
       </c>
       <c r="D3">
-        <v>13.60705870072544</v>
+        <v>9.128949602334393</v>
       </c>
       <c r="E3">
-        <v>13.88313094264151</v>
+        <v>8.383095839589473</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.713048051616156</v>
+        <v>2.133175398964012</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>30.19097428770155</v>
+        <v>19.02388241809561</v>
       </c>
       <c r="J3">
-        <v>8.362569526578678</v>
+        <v>4.837120673587936</v>
       </c>
       <c r="K3">
-        <v>12.87267849026182</v>
+        <v>10.57894847341364</v>
       </c>
       <c r="L3">
-        <v>12.66414272467651</v>
+        <v>7.795031931248203</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.82182743811731</v>
+        <v>14.26449089473788</v>
       </c>
       <c r="O3">
-        <v>31.74084142498133</v>
+        <v>20.28847027520206</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.67039747458705</v>
+        <v>13.15122063958718</v>
       </c>
       <c r="C4">
-        <v>5.12812818411575</v>
+        <v>5.592010087610677</v>
       </c>
       <c r="D4">
-        <v>13.60535356381548</v>
+        <v>8.990405545064664</v>
       </c>
       <c r="E4">
-        <v>13.89686848301197</v>
+        <v>8.351542030358587</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.714330535253257</v>
+        <v>2.136432249146166</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>30.24832114261384</v>
+        <v>19.08932315611387</v>
       </c>
       <c r="J4">
-        <v>8.368406131399338</v>
+        <v>4.850935608376196</v>
       </c>
       <c r="K4">
-        <v>12.80510504923499</v>
+        <v>10.1894233540974</v>
       </c>
       <c r="L4">
-        <v>12.66878799187089</v>
+        <v>7.715099894050878</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.86155322336774</v>
+        <v>14.39434072184797</v>
       </c>
       <c r="O4">
-        <v>31.79428019868575</v>
+        <v>20.29493127618123</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.63054865409754</v>
+        <v>12.93253974244599</v>
       </c>
       <c r="C5">
-        <v>5.103743146874624</v>
+        <v>5.528353300830963</v>
       </c>
       <c r="D5">
-        <v>13.60526065224379</v>
+        <v>8.934559816980617</v>
       </c>
       <c r="E5">
-        <v>13.90291387127541</v>
+        <v>8.339568170560034</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.714869691400505</v>
+        <v>2.13778585488078</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>30.27284017480415</v>
+        <v>19.11872856828176</v>
       </c>
       <c r="J5">
-        <v>8.370863315450205</v>
+        <v>4.856698780942732</v>
       </c>
       <c r="K5">
-        <v>12.77804010356867</v>
+        <v>10.02716685187373</v>
       </c>
       <c r="L5">
-        <v>12.67111664690625</v>
+        <v>7.68314517333429</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.87819017832594</v>
+        <v>14.44800471396845</v>
       </c>
       <c r="O5">
-        <v>31.81738269274426</v>
+        <v>20.30079727387698</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.62396783938127</v>
+        <v>12.89593101504934</v>
       </c>
       <c r="C6">
-        <v>5.099670009274392</v>
+        <v>5.517704327200152</v>
       </c>
       <c r="D6">
-        <v>13.60528162982889</v>
+        <v>8.925325668676527</v>
       </c>
       <c r="E6">
-        <v>13.90394472762228</v>
+        <v>8.33763314238967</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.714960217974265</v>
+        <v>2.138012230624824</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.27698097531408</v>
+        <v>19.12377395555097</v>
       </c>
       <c r="J6">
-        <v>8.3712760903268</v>
+        <v>4.857663855342109</v>
       </c>
       <c r="K6">
-        <v>12.77357523567883</v>
+        <v>10.00001695134838</v>
       </c>
       <c r="L6">
-        <v>12.67152965709368</v>
+        <v>7.677877227053342</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.88097985116003</v>
+        <v>14.45696144525747</v>
       </c>
       <c r="O6">
-        <v>31.82129888676132</v>
+        <v>20.30196347680655</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.66985766910671</v>
+        <v>13.14829149031762</v>
       </c>
       <c r="C7">
-        <v>5.12780093930836</v>
+        <v>5.591156904376496</v>
       </c>
       <c r="D7">
-        <v>13.60534987123738</v>
+        <v>8.989649820212916</v>
       </c>
       <c r="E7">
-        <v>13.89694820183334</v>
+        <v>8.351376974097592</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.714337739489521</v>
+        <v>2.136450396707851</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>30.24864715997947</v>
+        <v>19.08970876564783</v>
       </c>
       <c r="J7">
-        <v>8.36843895079803</v>
+        <v>4.851012790174413</v>
       </c>
       <c r="K7">
-        <v>12.8047380976079</v>
+        <v>10.18724912804285</v>
       </c>
       <c r="L7">
-        <v>12.66881763174827</v>
+        <v>7.714666403254572</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.8617757779823</v>
+        <v>14.39506139179783</v>
       </c>
       <c r="O7">
-        <v>31.79458640041649</v>
+        <v>20.29499743696053</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.87730867652874</v>
+        <v>14.21723607147423</v>
       </c>
       <c r="C8">
-        <v>5.248338306956781</v>
+        <v>5.903517692063014</v>
       </c>
       <c r="D8">
-        <v>13.61093058367573</v>
+        <v>9.278686954987975</v>
       </c>
       <c r="E8">
-        <v>13.86999913686068</v>
+        <v>8.4198079672361</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.711735892283512</v>
+        <v>2.129788817446197</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30.13371045087555</v>
+        <v>18.96367550233444</v>
       </c>
       <c r="J8">
-        <v>8.356609752035402</v>
+        <v>4.822830945723953</v>
       </c>
       <c r="K8">
-        <v>12.94632455822728</v>
+        <v>10.98210391347405</v>
       </c>
       <c r="L8">
-        <v>12.66067239320373</v>
+        <v>7.882364030828384</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.78096527414563</v>
+        <v>14.12842857419974</v>
       </c>
       <c r="O8">
-        <v>31.68835176597281</v>
+        <v>20.29292631738401</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.29906716232697</v>
+        <v>16.14189100748263</v>
       </c>
       <c r="C9">
-        <v>5.470821985966389</v>
+        <v>6.471339338308675</v>
       </c>
       <c r="D9">
-        <v>13.64071386311481</v>
+        <v>9.859679401362223</v>
       </c>
       <c r="E9">
-        <v>13.83122810336316</v>
+        <v>8.582324616023165</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.70715141643069</v>
+        <v>2.117516531194673</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>29.94461470672587</v>
+        <v>18.81030573264556</v>
       </c>
       <c r="J9">
-        <v>8.335878819688501</v>
+        <v>4.771662290397106</v>
       </c>
       <c r="K9">
-        <v>13.23684323034009</v>
+        <v>12.60999299788505</v>
       </c>
       <c r="L9">
-        <v>12.65837256539859</v>
+        <v>8.228650646130967</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.63654242800096</v>
+        <v>13.62747211895065</v>
       </c>
       <c r="O9">
-        <v>31.52193138004179</v>
+        <v>20.39894518097593</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.61544747854923</v>
+        <v>17.4447693009548</v>
       </c>
       <c r="C10">
-        <v>5.625027991884597</v>
+        <v>6.859715807902073</v>
       </c>
       <c r="D10">
-        <v>13.6739371170584</v>
+        <v>10.29144355768262</v>
       </c>
       <c r="E10">
-        <v>13.81129406938124</v>
+        <v>8.71922769678306</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.704095550603129</v>
+        <v>2.108944901537663</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.82782470256025</v>
+        <v>18.76106441601601</v>
       </c>
       <c r="J10">
-        <v>8.322136514173573</v>
+        <v>4.736465486484935</v>
       </c>
       <c r="K10">
-        <v>13.45649893834834</v>
+        <v>13.73571880539791</v>
       </c>
       <c r="L10">
-        <v>12.66495361832119</v>
+        <v>8.492066653011131</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.53891160936789</v>
+        <v>13.27124212641912</v>
       </c>
       <c r="O10">
-        <v>31.42526231826379</v>
+        <v>20.55033761016743</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.76023492442525</v>
+        <v>18.01250855809135</v>
       </c>
       <c r="C11">
-        <v>5.693019911025234</v>
+        <v>7.029937302820861</v>
       </c>
       <c r="D11">
-        <v>13.69147698859853</v>
+        <v>10.48821720042221</v>
       </c>
       <c r="E11">
-        <v>13.80407499483391</v>
+        <v>8.785340449210615</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.702772484775671</v>
+        <v>2.105133276694214</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>29.77950354834237</v>
+        <v>18.75385418645679</v>
       </c>
       <c r="J11">
-        <v>8.316204927502675</v>
+        <v>4.720951213690399</v>
       </c>
       <c r="K11">
-        <v>13.55741986228975</v>
+        <v>14.22130461217496</v>
       </c>
       <c r="L11">
-        <v>12.66972730294304</v>
+        <v>8.613522338669902</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.49631900903817</v>
+        <v>13.11139213180296</v>
       </c>
       <c r="O11">
-        <v>31.38685341796693</v>
+        <v>20.63651624430922</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.81514007253747</v>
+        <v>18.22386768050313</v>
       </c>
       <c r="C12">
-        <v>5.718444779020479</v>
+        <v>7.093457178790444</v>
       </c>
       <c r="D12">
-        <v>13.69846412822311</v>
+        <v>10.56272936387685</v>
       </c>
       <c r="E12">
-        <v>13.80160648700689</v>
+        <v>8.810928265756585</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.702281064923874</v>
+        <v>2.103701754751121</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>29.76189708672057</v>
+        <v>18.75342929796712</v>
       </c>
       <c r="J12">
-        <v>8.314004548390148</v>
+        <v>4.7151459026564</v>
       </c>
       <c r="K12">
-        <v>13.5957495605784</v>
+        <v>14.40141775163916</v>
       </c>
       <c r="L12">
-        <v>12.67178932627472</v>
+        <v>8.659721964052386</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.48045067570119</v>
+        <v>13.05114642748942</v>
       </c>
       <c r="O12">
-        <v>31.3731100100103</v>
+        <v>20.67174724905517</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.80331257185509</v>
+        <v>18.17850973010011</v>
       </c>
       <c r="C13">
-        <v>5.71298359140306</v>
+        <v>7.079818943453533</v>
       </c>
       <c r="D13">
-        <v>13.69694403412874</v>
+        <v>10.54668270897572</v>
       </c>
       <c r="E13">
-        <v>13.80212634109555</v>
+        <v>8.805392895791572</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.702386474921991</v>
+        <v>2.104009543629658</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>29.76565818248621</v>
+        <v>18.75341630261314</v>
       </c>
       <c r="J13">
-        <v>8.31447640648592</v>
+        <v>4.71639311476535</v>
       </c>
       <c r="K13">
-        <v>13.58749002617045</v>
+        <v>14.36279399655602</v>
       </c>
       <c r="L13">
-        <v>12.67133394827147</v>
+        <v>8.649763250037253</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.48385663532284</v>
+        <v>13.0641092015955</v>
       </c>
       <c r="O13">
-        <v>31.3760342537826</v>
+        <v>20.66404241361867</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.76475072242849</v>
+        <v>18.02997016738599</v>
       </c>
       <c r="C14">
-        <v>5.695118153493815</v>
+        <v>7.035181994602731</v>
       </c>
       <c r="D14">
-        <v>13.69204492962082</v>
+        <v>10.49434768357839</v>
       </c>
       <c r="E14">
-        <v>13.80386659836655</v>
+        <v>8.787434500694562</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.702731863309435</v>
+        <v>2.105015271319326</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>29.77804118880246</v>
+        <v>18.75377231918503</v>
       </c>
       <c r="J14">
-        <v>8.316022984610886</v>
+        <v>4.720472223102969</v>
       </c>
       <c r="K14">
-        <v>13.5605711762692</v>
+        <v>14.23619787415088</v>
       </c>
       <c r="L14">
-        <v>12.66989185936252</v>
+        <v>8.617319208548738</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.49500829638568</v>
+        <v>13.10643013014795</v>
       </c>
       <c r="O14">
-        <v>31.38570667809467</v>
+        <v>20.63936205839605</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.74113915488745</v>
+        <v>17.93851148128137</v>
       </c>
       <c r="C15">
-        <v>5.684132754530022</v>
+        <v>7.007717992688517</v>
       </c>
       <c r="D15">
-        <v>13.68908892150937</v>
+        <v>10.46228924354445</v>
       </c>
       <c r="E15">
-        <v>13.80496707155653</v>
+        <v>8.776506416899741</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.702944672021871</v>
+        <v>2.105632829839007</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>29.78571623152056</v>
+        <v>18.75429428535231</v>
       </c>
       <c r="J15">
-        <v>8.316976264569693</v>
+        <v>4.722979803414995</v>
       </c>
       <c r="K15">
-        <v>13.54409643499997</v>
+        <v>14.15816479760919</v>
       </c>
       <c r="L15">
-        <v>12.66904160966672</v>
+        <v>8.597472486650762</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.50187290870104</v>
+        <v>13.13238923415349</v>
       </c>
       <c r="O15">
-        <v>31.3917356792644</v>
+        <v>20.62458601882797</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.60599864188998</v>
+        <v>17.40716001990431</v>
       </c>
       <c r="C16">
-        <v>5.620540109118602</v>
+        <v>6.848460499647715</v>
       </c>
       <c r="D16">
-        <v>13.67283935816797</v>
+        <v>10.27858649307628</v>
       </c>
       <c r="E16">
-        <v>13.81180300238286</v>
+        <v>8.714984328276049</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.704183361507673</v>
+        <v>2.109195701190915</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29.83107937511987</v>
+        <v>18.76185156081637</v>
       </c>
       <c r="J16">
-        <v>8.322530575572094</v>
+        <v>4.73748922377992</v>
       </c>
       <c r="K16">
-        <v>13.4499210061971</v>
+        <v>13.70345491353104</v>
       </c>
       <c r="L16">
-        <v>12.66467732801658</v>
+        <v>8.484159627035584</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.54173166130712</v>
+        <v>13.28173042316905</v>
       </c>
       <c r="O16">
-        <v>31.42788450835828</v>
+        <v>20.54506320245581</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.52328210787208</v>
+        <v>17.07476630294963</v>
       </c>
       <c r="C17">
-        <v>5.580966797271345</v>
+        <v>6.749098789737781</v>
       </c>
       <c r="D17">
-        <v>13.66348968056657</v>
+        <v>10.16594345818167</v>
       </c>
       <c r="E17">
-        <v>13.81646973127547</v>
+        <v>8.678225521774809</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.704960400160537</v>
+        <v>2.111403340268923</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.86013975632687</v>
+        <v>18.77046332257024</v>
       </c>
       <c r="J17">
-        <v>8.326019737787263</v>
+        <v>4.746516266509604</v>
       </c>
       <c r="K17">
-        <v>13.39238148210542</v>
+        <v>13.41774585718601</v>
       </c>
       <c r="L17">
-        <v>12.66245475341928</v>
+        <v>8.415042742831211</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.56664905914334</v>
+        <v>13.37388898124519</v>
       </c>
       <c r="O17">
-        <v>31.45148690832341</v>
+        <v>20.50078912851093</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.47578990025054</v>
+        <v>16.88123549014553</v>
       </c>
       <c r="C18">
-        <v>5.558002900616363</v>
+        <v>6.691341545359301</v>
       </c>
       <c r="D18">
-        <v>13.65834062631344</v>
+        <v>10.10119111110975</v>
       </c>
       <c r="E18">
-        <v>13.81932799330822</v>
+        <v>8.657443768491934</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.705413647306889</v>
+        <v>2.112681413469828</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>29.87730697095618</v>
+        <v>18.77683885885034</v>
       </c>
       <c r="J18">
-        <v>8.328056730566919</v>
+        <v>4.751755271384932</v>
       </c>
       <c r="K18">
-        <v>13.35938206991641</v>
+        <v>13.25091527429663</v>
       </c>
       <c r="L18">
-        <v>12.66134402766567</v>
+        <v>8.375443137240978</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.58115227787161</v>
+        <v>13.42710522519731</v>
       </c>
       <c r="O18">
-        <v>31.46558627598909</v>
+        <v>20.4769467320523</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.45972574957942</v>
+        <v>16.81530787849969</v>
       </c>
       <c r="C19">
-        <v>5.550193340002991</v>
+        <v>6.671682105714499</v>
       </c>
       <c r="D19">
-        <v>13.65663662205822</v>
+        <v>10.07927515617375</v>
       </c>
       <c r="E19">
-        <v>13.82032567065192</v>
+        <v>8.650469380016226</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.705568195063018</v>
+        <v>2.113115594225958</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29.88319719010246</v>
+        <v>18.77923814790396</v>
       </c>
       <c r="J19">
-        <v>8.328751600742025</v>
+        <v>4.753537216710445</v>
       </c>
       <c r="K19">
-        <v>13.34822641817334</v>
+        <v>13.19399889072005</v>
       </c>
       <c r="L19">
-        <v>12.66099679467977</v>
+        <v>8.362062791636951</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.58609229102431</v>
+        <v>13.4451601392749</v>
       </c>
       <c r="O19">
-        <v>31.47045003287089</v>
+        <v>20.46914952627971</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.53207905670786</v>
+        <v>17.11039343812786</v>
       </c>
       <c r="C20">
-        <v>5.585200478220933</v>
+        <v>6.75973893513979</v>
       </c>
       <c r="D20">
-        <v>13.66446133322208</v>
+        <v>10.17793108540818</v>
       </c>
       <c r="E20">
-        <v>13.81595493788302</v>
+        <v>8.682101195521586</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.704877029826272</v>
+        <v>2.111167479813818</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.85699939876709</v>
+        <v>18.76939851861802</v>
       </c>
       <c r="J20">
-        <v>8.325645194849193</v>
+        <v>4.745550482761741</v>
       </c>
       <c r="K20">
-        <v>13.39849696843376</v>
+        <v>13.44841831957759</v>
       </c>
       <c r="L20">
-        <v>12.66267401146192</v>
+        <v>8.422384553333618</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.56397882986531</v>
+        <v>13.3640571214287</v>
       </c>
       <c r="O20">
-        <v>31.44892016572605</v>
+        <v>20.50533343120137</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.7760755468081</v>
+        <v>18.07369865467431</v>
       </c>
       <c r="C21">
-        <v>5.7003745017845</v>
+        <v>7.048318508079234</v>
       </c>
       <c r="D21">
-        <v>13.69347457895436</v>
+        <v>10.50972019667515</v>
       </c>
       <c r="E21">
-        <v>13.80334825095959</v>
+        <v>8.792694320941179</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.702630154295949</v>
+        <v>2.10471954908534</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>29.77438522346367</v>
+        <v>18.75360419583178</v>
       </c>
       <c r="J21">
-        <v>8.315567476233031</v>
+        <v>4.719272216121378</v>
       </c>
       <c r="K21">
-        <v>13.56847506668637</v>
+        <v>14.27348410996888</v>
       </c>
       <c r="L21">
-        <v>12.67030854684839</v>
+        <v>8.626843397242833</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.4917257209976</v>
+        <v>13.09399193686613</v>
       </c>
       <c r="O21">
-        <v>31.38284390245489</v>
+        <v>20.64653994073102</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.93597046917232</v>
+        <v>18.68209950454233</v>
       </c>
       <c r="C22">
-        <v>5.773764354555144</v>
+        <v>7.231444971375421</v>
       </c>
       <c r="D22">
-        <v>13.71444637500313</v>
+        <v>10.72653260443725</v>
       </c>
       <c r="E22">
-        <v>13.79665447556553</v>
+        <v>8.868193014011364</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.701217605202125</v>
+        <v>2.100574188572829</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>29.724424089681</v>
+        <v>18.75677839498014</v>
       </c>
       <c r="J22">
-        <v>8.309247872286443</v>
+        <v>4.702502658410237</v>
       </c>
       <c r="K22">
-        <v>13.6802109931041</v>
+        <v>14.79077375245403</v>
       </c>
       <c r="L22">
-        <v>12.67677976189136</v>
+        <v>8.761664526811865</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.44602234327217</v>
+        <v>12.91914039846376</v>
       </c>
       <c r="O22">
-        <v>31.34432957602853</v>
+        <v>20.75401318153071</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.85060765353452</v>
+        <v>18.3593320046711</v>
       </c>
       <c r="C23">
-        <v>5.734770871437123</v>
+        <v>7.134210609558666</v>
       </c>
       <c r="D23">
-        <v>13.70307073976918</v>
+        <v>10.6108348367953</v>
       </c>
       <c r="E23">
-        <v>13.800085905108</v>
+        <v>8.827603141367796</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.701966408566471</v>
+        <v>2.102780615239431</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>29.75072021948512</v>
+        <v>18.7538083859641</v>
       </c>
       <c r="J23">
-        <v>8.312596423821649</v>
+        <v>4.711416479206796</v>
       </c>
       <c r="K23">
-        <v>13.62052639596904</v>
+        <v>14.51667856242203</v>
       </c>
       <c r="L23">
-        <v>12.67319095317551</v>
+        <v>8.689606946745242</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.4702765656118</v>
+        <v>13.01232137251233</v>
       </c>
       <c r="O23">
-        <v>31.36445783693558</v>
+        <v>20.69522778654894</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.52810175745483</v>
+        <v>17.09429398576198</v>
       </c>
       <c r="C24">
-        <v>5.583287092598612</v>
+        <v>6.754930495744485</v>
       </c>
       <c r="D24">
-        <v>13.66402134419842</v>
+        <v>10.17251145120882</v>
       </c>
       <c r="E24">
-        <v>13.81618712989749</v>
+        <v>8.680347909039607</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.704914701249916</v>
+        <v>2.111274084635126</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.85841772151823</v>
+        <v>18.76987548855893</v>
       </c>
       <c r="J24">
-        <v>8.325814429050531</v>
+        <v>4.745986960090512</v>
       </c>
       <c r="K24">
-        <v>13.39573190296922</v>
+        <v>13.43455931589693</v>
       </c>
       <c r="L24">
-        <v>12.66257436440164</v>
+        <v>8.419064893225919</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.56518548634595</v>
+        <v>13.36850137703641</v>
       </c>
       <c r="O24">
-        <v>31.45007893907187</v>
+        <v>20.50327394112397</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.18363700018467</v>
+        <v>15.64037931086365</v>
       </c>
       <c r="C25">
-        <v>5.412205201079789</v>
+        <v>6.322697914590828</v>
       </c>
       <c r="D25">
-        <v>13.63065336913754</v>
+        <v>9.701385792010283</v>
       </c>
       <c r="E25">
-        <v>13.84021266180868</v>
+        <v>8.535298933565679</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.70833655151411</v>
+        <v>2.120755568159937</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.99188316217996</v>
+        <v>18.84112223718029</v>
       </c>
       <c r="J25">
-        <v>8.341224599031893</v>
+        <v>4.785076409976961</v>
       </c>
       <c r="K25">
-        <v>13.15703948236856</v>
+        <v>12.17163810625592</v>
       </c>
       <c r="L25">
-        <v>12.65753714096026</v>
+        <v>8.133273826195994</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.67411784793859</v>
+        <v>13.76080206422365</v>
       </c>
       <c r="O25">
-        <v>31.5624603262518</v>
+        <v>20.35781527273238</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.49557393002231</v>
+        <v>20.47963606982926</v>
       </c>
       <c r="C2">
-        <v>5.985197004407731</v>
+        <v>16.58698148368</v>
       </c>
       <c r="D2">
-        <v>9.358108095064788</v>
+        <v>7.207505188194426</v>
       </c>
       <c r="E2">
-        <v>8.440254833454624</v>
+        <v>29.52888021752891</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.128038718886448</v>
+        <v>24.86051686596281</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.353284724507907</v>
       </c>
       <c r="I2">
-        <v>18.93564833804592</v>
+        <v>3.566543264597459</v>
       </c>
       <c r="J2">
-        <v>4.815475861808106</v>
+        <v>8.6319806270689</v>
       </c>
       <c r="K2">
-        <v>11.18949143235277</v>
+        <v>11.92726166041417</v>
       </c>
       <c r="L2">
-        <v>7.929042075904707</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.05772133111794</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>20.29957503945955</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>11.77676284559585</v>
+      </c>
+      <c r="Q2">
+        <v>14.74849891874743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.67551597847424</v>
+        <v>19.14669800049873</v>
       </c>
       <c r="C3">
-        <v>5.744962207249593</v>
+        <v>15.61270853264726</v>
       </c>
       <c r="D3">
-        <v>9.128949602334393</v>
+        <v>6.712840689119743</v>
       </c>
       <c r="E3">
-        <v>8.383095839589473</v>
+        <v>27.66726748922138</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.133175398964012</v>
+        <v>23.67850105927601</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.110754576008857</v>
       </c>
       <c r="I3">
-        <v>19.02388241809561</v>
+        <v>3.413295079918757</v>
       </c>
       <c r="J3">
-        <v>4.837120673587936</v>
+        <v>8.522086818873291</v>
       </c>
       <c r="K3">
-        <v>10.57894847341364</v>
+        <v>11.95734375625363</v>
       </c>
       <c r="L3">
-        <v>7.795031931248203</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.26449089473788</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>20.28847027520206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>11.81578712162022</v>
+      </c>
+      <c r="Q3">
+        <v>14.34800788987545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.15122063958718</v>
+        <v>18.27663076766517</v>
       </c>
       <c r="C4">
-        <v>5.592010087610677</v>
+        <v>14.98612069895862</v>
       </c>
       <c r="D4">
-        <v>8.990405545064664</v>
+        <v>6.391691977124646</v>
       </c>
       <c r="E4">
-        <v>8.351542030358587</v>
+        <v>26.4610037570557</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.136432249146166</v>
+        <v>22.93453606501861</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.95661474264841</v>
       </c>
       <c r="I4">
-        <v>19.08932315611387</v>
+        <v>3.316566253965984</v>
       </c>
       <c r="J4">
-        <v>4.850935608376196</v>
+        <v>8.457220238159525</v>
       </c>
       <c r="K4">
-        <v>10.1894233540974</v>
+        <v>11.98100118554025</v>
       </c>
       <c r="L4">
-        <v>7.715099894050878</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.39434072184797</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>20.29493127618123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>11.84259815999431</v>
+      </c>
+      <c r="Q4">
+        <v>14.10311444347577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.93253974244599</v>
+        <v>17.90394052378998</v>
       </c>
       <c r="C5">
-        <v>5.528353300830963</v>
+        <v>14.73289513701109</v>
       </c>
       <c r="D5">
-        <v>8.934559816980617</v>
+        <v>6.256393079202338</v>
       </c>
       <c r="E5">
-        <v>8.339568170560034</v>
+        <v>25.95332466882279</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.13778585488078</v>
+        <v>22.61392044150255</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.892328991934491</v>
       </c>
       <c r="I5">
-        <v>19.11872856828176</v>
+        <v>3.276707946553331</v>
       </c>
       <c r="J5">
-        <v>4.856698780942732</v>
+        <v>8.429171415693903</v>
       </c>
       <c r="K5">
-        <v>10.02716685187373</v>
+        <v>11.98674989898271</v>
       </c>
       <c r="L5">
-        <v>7.68314517333429</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.44800471396845</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>20.30079727387698</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>11.85536499113454</v>
+      </c>
+      <c r="Q5">
+        <v>13.99797312717295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.89593101504934</v>
+        <v>17.83501563007329</v>
       </c>
       <c r="C6">
-        <v>5.517704327200152</v>
+        <v>14.7016467296874</v>
       </c>
       <c r="D6">
-        <v>8.925325668676527</v>
+        <v>6.233637628475242</v>
       </c>
       <c r="E6">
-        <v>8.33763314238967</v>
+        <v>25.86777974314934</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.138012230624824</v>
+        <v>22.54423076495057</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.881406964229789</v>
       </c>
       <c r="I6">
-        <v>19.12377395555097</v>
+        <v>3.270504898854232</v>
       </c>
       <c r="J6">
-        <v>4.857663855342109</v>
+        <v>8.421775779531975</v>
       </c>
       <c r="K6">
-        <v>10.00001695134838</v>
+        <v>11.9815054485148</v>
       </c>
       <c r="L6">
-        <v>7.677877227053342</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.45696144525747</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>20.30196347680655</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>11.8589301088429</v>
+      </c>
+      <c r="Q6">
+        <v>13.97356585904662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.14829149031762</v>
+        <v>18.25498219585465</v>
       </c>
       <c r="C7">
-        <v>5.591156904376496</v>
+        <v>15.01275340282757</v>
       </c>
       <c r="D7">
-        <v>8.989649820212916</v>
+        <v>6.389824392073192</v>
       </c>
       <c r="E7">
-        <v>8.351376974097592</v>
+        <v>26.4534563470398</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.136450396707851</v>
+        <v>22.88668151057777</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.955306939905619</v>
       </c>
       <c r="I7">
-        <v>19.08970876564783</v>
+        <v>3.317008848401862</v>
       </c>
       <c r="J7">
-        <v>4.851012790174413</v>
+        <v>8.449285564690557</v>
       </c>
       <c r="K7">
-        <v>10.18724912804285</v>
+        <v>11.96393325063031</v>
       </c>
       <c r="L7">
-        <v>7.714666403254572</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.39506139179783</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>20.29499743696053</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>11.84667029948278</v>
+      </c>
+      <c r="Q7">
+        <v>14.08281785108796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.21723607147423</v>
+        <v>20.01034890519558</v>
       </c>
       <c r="C8">
-        <v>5.903517692063014</v>
+        <v>16.29401352508654</v>
       </c>
       <c r="D8">
-        <v>9.278686954987975</v>
+        <v>7.040459251458493</v>
       </c>
       <c r="E8">
-        <v>8.4198079672361</v>
+        <v>28.8991858033263</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.129788817446197</v>
+        <v>24.40260472363926</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.270172007462651</v>
       </c>
       <c r="I8">
-        <v>18.96367550233444</v>
+        <v>3.515214836445292</v>
       </c>
       <c r="J8">
-        <v>4.822830945723953</v>
+        <v>8.583716710460443</v>
       </c>
       <c r="K8">
-        <v>10.98210391347405</v>
+        <v>11.91382945432612</v>
       </c>
       <c r="L8">
-        <v>7.882364030828384</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.12842857419974</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>20.29292631738401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>11.79508552485653</v>
+      </c>
+      <c r="Q8">
+        <v>14.58608984859046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.14189100748263</v>
+        <v>23.0712321655221</v>
       </c>
       <c r="C9">
-        <v>6.471339338308675</v>
+        <v>18.53059287475868</v>
       </c>
       <c r="D9">
-        <v>9.859679401362223</v>
+        <v>8.17956101153686</v>
       </c>
       <c r="E9">
-        <v>8.582324616023165</v>
+        <v>33.19530003330215</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.117516531194673</v>
+        <v>27.28872057500183</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.847957713220265</v>
       </c>
       <c r="I9">
-        <v>18.81030573264556</v>
+        <v>3.882713933638337</v>
       </c>
       <c r="J9">
-        <v>4.771662290397106</v>
+        <v>8.881256584840516</v>
       </c>
       <c r="K9">
-        <v>12.60999299788505</v>
+        <v>11.89046712443428</v>
       </c>
       <c r="L9">
-        <v>8.228650646130967</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.62747211895065</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>20.39894518097593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.70985246103376</v>
+      </c>
+      <c r="Q9">
+        <v>15.6091603633821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.4447693009548</v>
+        <v>25.02238958911985</v>
       </c>
       <c r="C10">
-        <v>6.859715807902073</v>
+        <v>19.98128339324571</v>
       </c>
       <c r="D10">
-        <v>10.29144355768262</v>
+        <v>8.933894426674911</v>
       </c>
       <c r="E10">
-        <v>8.71922769678306</v>
+        <v>35.17096928489316</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.108944901537663</v>
+        <v>29.06908640932608</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.212081400652386</v>
       </c>
       <c r="I10">
-        <v>18.76106441601601</v>
+        <v>4.135037929077823</v>
       </c>
       <c r="J10">
-        <v>4.736465486484935</v>
+        <v>9.069442397309313</v>
       </c>
       <c r="K10">
-        <v>13.73571880539791</v>
+        <v>11.84473511787731</v>
       </c>
       <c r="L10">
-        <v>8.492066653011131</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.27124212641912</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>20.55033761016743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.68351064668218</v>
+      </c>
+      <c r="Q10">
+        <v>16.25350132043664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.01250855809135</v>
+        <v>25.45478587806164</v>
       </c>
       <c r="C11">
-        <v>7.029937302820861</v>
+        <v>20.10360834037191</v>
       </c>
       <c r="D11">
-        <v>10.48821720042221</v>
+        <v>9.251678355160042</v>
       </c>
       <c r="E11">
-        <v>8.785340449210615</v>
+        <v>28.5648226483723</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.105133276694214</v>
+        <v>27.98966073015002</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.556974249766365</v>
       </c>
       <c r="I11">
-        <v>18.75385418645679</v>
+        <v>4.193592266914663</v>
       </c>
       <c r="J11">
-        <v>4.720951213690399</v>
+        <v>8.802696444849929</v>
       </c>
       <c r="K11">
-        <v>14.22130461217496</v>
+        <v>11.35893370385906</v>
       </c>
       <c r="L11">
-        <v>8.613522338669902</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.11139213180296</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>20.63651624430922</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.85122441239398</v>
+      </c>
+      <c r="Q11">
+        <v>15.68684001472474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.22386768050313</v>
+        <v>25.44467525979717</v>
       </c>
       <c r="C12">
-        <v>7.093457178790444</v>
+        <v>19.87903519441069</v>
       </c>
       <c r="D12">
-        <v>10.56272936387685</v>
+        <v>9.366634212544152</v>
       </c>
       <c r="E12">
-        <v>8.810928265756585</v>
+        <v>22.62330521915285</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.103701754751121</v>
+        <v>26.74366839733255</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.351364296640035</v>
       </c>
       <c r="I12">
-        <v>18.75342929796712</v>
+        <v>4.193960127734407</v>
       </c>
       <c r="J12">
-        <v>4.7151459026564</v>
+        <v>8.541425674687535</v>
       </c>
       <c r="K12">
-        <v>14.40141775163916</v>
+        <v>10.98014217816629</v>
       </c>
       <c r="L12">
-        <v>8.659721964052386</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.05114642748942</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>20.67174724905517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.99744057886987</v>
+      </c>
+      <c r="Q12">
+        <v>15.08509359397359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.17850973010011</v>
+        <v>25.07519579460754</v>
       </c>
       <c r="C13">
-        <v>7.079818943453533</v>
+        <v>19.40488869870515</v>
       </c>
       <c r="D13">
-        <v>10.54668270897572</v>
+        <v>9.336210401163303</v>
       </c>
       <c r="E13">
-        <v>8.805392895791572</v>
+        <v>16.73086363103362</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.104009543629658</v>
+        <v>25.20133852083334</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.363423652943279</v>
       </c>
       <c r="I13">
-        <v>18.75341630261314</v>
+        <v>4.151747123314751</v>
       </c>
       <c r="J13">
-        <v>4.71639311476535</v>
+        <v>8.254941400802988</v>
       </c>
       <c r="K13">
-        <v>14.36279399655602</v>
+        <v>10.63503456373997</v>
       </c>
       <c r="L13">
-        <v>8.649763250037253</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.0641092015955</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>20.66404241361867</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.13821250097882</v>
+      </c>
+      <c r="Q13">
+        <v>14.3822541169588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.02997016738599</v>
+        <v>24.6455891675068</v>
       </c>
       <c r="C14">
-        <v>7.035181994602731</v>
+        <v>18.9625718086705</v>
       </c>
       <c r="D14">
-        <v>10.49434768357839</v>
+        <v>9.248943342642706</v>
       </c>
       <c r="E14">
-        <v>8.787434500694562</v>
+        <v>12.70301459793166</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.105015271319326</v>
+        <v>23.95780604585717</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.158533910036033</v>
       </c>
       <c r="I14">
-        <v>18.75377231918503</v>
+        <v>4.104186794457821</v>
       </c>
       <c r="J14">
-        <v>4.720472223102969</v>
+        <v>8.040488102161833</v>
       </c>
       <c r="K14">
-        <v>14.23619787415088</v>
+        <v>10.40711601979935</v>
       </c>
       <c r="L14">
-        <v>8.617319208548738</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.10643013014795</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>20.63936205839605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.23506088607038</v>
+      </c>
+      <c r="Q14">
+        <v>13.83495059572749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.93851148128137</v>
+        <v>24.45684838424361</v>
       </c>
       <c r="C15">
-        <v>7.007717992688517</v>
+        <v>18.80821171176283</v>
       </c>
       <c r="D15">
-        <v>10.46228924354445</v>
+        <v>9.196228588840915</v>
       </c>
       <c r="E15">
-        <v>8.776506416899741</v>
+        <v>11.74216674309054</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.105632829839007</v>
+        <v>23.57538516514542</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.341934259161111</v>
       </c>
       <c r="I15">
-        <v>18.75429428535231</v>
+        <v>4.083575992767972</v>
       </c>
       <c r="J15">
-        <v>4.722979803414995</v>
+        <v>7.981366364046496</v>
       </c>
       <c r="K15">
-        <v>14.15816479760919</v>
+        <v>10.35452420515706</v>
       </c>
       <c r="L15">
-        <v>8.597472486650762</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.13238923415349</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>20.62458601882797</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.25842439720777</v>
+      </c>
+      <c r="Q15">
+        <v>13.67482685414782</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.40716001990431</v>
+        <v>23.70056993974801</v>
       </c>
       <c r="C16">
-        <v>6.848460499647715</v>
+        <v>18.29220933707376</v>
       </c>
       <c r="D16">
-        <v>10.27858649307628</v>
+        <v>8.892804660384506</v>
       </c>
       <c r="E16">
-        <v>8.714984328276049</v>
+        <v>11.63887935928558</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.109195701190915</v>
+        <v>23.00897613881436</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.066790364707416</v>
       </c>
       <c r="I16">
-        <v>18.76185156081637</v>
+        <v>3.986853342373454</v>
       </c>
       <c r="J16">
-        <v>4.73748922377992</v>
+        <v>7.949238718255907</v>
       </c>
       <c r="K16">
-        <v>13.70345491353104</v>
+        <v>10.43671358762533</v>
       </c>
       <c r="L16">
-        <v>8.484159627035584</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.28173042316905</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>20.54506320245581</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.23138967763987</v>
+      </c>
+      <c r="Q16">
+        <v>13.50436071116869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.07476630294963</v>
+        <v>23.34649273705871</v>
       </c>
       <c r="C17">
-        <v>6.749098789737781</v>
+        <v>18.13515565752363</v>
       </c>
       <c r="D17">
-        <v>10.16594345818167</v>
+        <v>8.703504009641302</v>
       </c>
       <c r="E17">
-        <v>8.678225521774809</v>
+        <v>13.7257950890393</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.111403340268923</v>
+        <v>23.26333961152386</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.382974452387195</v>
       </c>
       <c r="I17">
-        <v>18.77046332257024</v>
+        <v>3.937345795490885</v>
       </c>
       <c r="J17">
-        <v>4.746516266509604</v>
+        <v>8.04036889528321</v>
       </c>
       <c r="K17">
-        <v>13.41774585718601</v>
+        <v>10.61921282380198</v>
       </c>
       <c r="L17">
-        <v>8.415042742831211</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.37388898124519</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>20.50078912851093</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.1612554798097</v>
+      </c>
+      <c r="Q17">
+        <v>13.67266691607907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.88123549014553</v>
+        <v>23.32368469451091</v>
       </c>
       <c r="C18">
-        <v>6.691341545359301</v>
+        <v>18.26035749675778</v>
       </c>
       <c r="D18">
-        <v>10.10119111110975</v>
+        <v>8.595185743765168</v>
       </c>
       <c r="E18">
-        <v>8.657443768491934</v>
+        <v>18.25434743505486</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.112681413469828</v>
+        <v>24.28204403937147</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.359901338525075</v>
       </c>
       <c r="I18">
-        <v>18.77683885885034</v>
+        <v>3.923779400839141</v>
       </c>
       <c r="J18">
-        <v>4.751755271384932</v>
+        <v>8.250571080663022</v>
       </c>
       <c r="K18">
-        <v>13.25091527429663</v>
+        <v>10.9205933149101</v>
       </c>
       <c r="L18">
-        <v>8.375443137240978</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.42710522519731</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>20.4769467320523</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.04329993387646</v>
+      </c>
+      <c r="Q18">
+        <v>14.16038705456644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.81530787849969</v>
+        <v>23.54759008317301</v>
       </c>
       <c r="C19">
-        <v>6.671682105714499</v>
+        <v>18.65395566732568</v>
       </c>
       <c r="D19">
-        <v>10.07927515617375</v>
+        <v>8.561786586484137</v>
       </c>
       <c r="E19">
-        <v>8.650469380016226</v>
+        <v>24.50491250781452</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.113115594225958</v>
+        <v>25.75217079187298</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.399003280783201</v>
       </c>
       <c r="I19">
-        <v>18.77923814790396</v>
+        <v>3.9491157158437</v>
       </c>
       <c r="J19">
-        <v>4.753537216710445</v>
+        <v>8.525928498377322</v>
       </c>
       <c r="K19">
-        <v>13.19399889072005</v>
+        <v>11.27077417640201</v>
       </c>
       <c r="L19">
-        <v>8.362062791636951</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.4451601392749</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>20.46914952627971</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.90826377800493</v>
+      </c>
+      <c r="Q19">
+        <v>14.8305393991214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.11039343812786</v>
+        <v>24.48381286341509</v>
       </c>
       <c r="C20">
-        <v>6.75973893513979</v>
+        <v>19.68064642793205</v>
       </c>
       <c r="D20">
-        <v>10.17793108540818</v>
+        <v>8.740990074699031</v>
       </c>
       <c r="E20">
-        <v>8.682101195521586</v>
+        <v>34.62258321572156</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.111167479813818</v>
+        <v>28.48835986006061</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4.114218424273109</v>
       </c>
       <c r="I20">
-        <v>18.76939851861802</v>
+        <v>4.073953659573813</v>
       </c>
       <c r="J20">
-        <v>4.745550482761741</v>
+        <v>8.995451509600763</v>
       </c>
       <c r="K20">
-        <v>13.44841831957759</v>
+        <v>11.79931964943899</v>
       </c>
       <c r="L20">
-        <v>8.422384553333618</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.3640571214287</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>20.50533343120137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.70447036121003</v>
+      </c>
+      <c r="Q20">
+        <v>16.02829961162352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.07369865467431</v>
+        <v>25.98539091609851</v>
       </c>
       <c r="C21">
-        <v>7.048318508079234</v>
+        <v>20.82945255710524</v>
       </c>
       <c r="D21">
-        <v>10.50972019667515</v>
+        <v>9.296052305476392</v>
       </c>
       <c r="E21">
-        <v>8.792694320941179</v>
+        <v>37.41172221062698</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.10471954908534</v>
+        <v>30.17379523436164</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.445458386112781</v>
       </c>
       <c r="I21">
-        <v>18.75360419583178</v>
+        <v>4.274184366363682</v>
       </c>
       <c r="J21">
-        <v>4.719272216121378</v>
+        <v>9.21008070368145</v>
       </c>
       <c r="K21">
-        <v>14.27348410996888</v>
+        <v>11.86631346153158</v>
       </c>
       <c r="L21">
-        <v>8.626843397242833</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.09399193686613</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>20.64653994073102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.65842163021578</v>
+      </c>
+      <c r="Q21">
+        <v>16.68277305495478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.68209950454233</v>
+        <v>26.91471083308245</v>
       </c>
       <c r="C22">
-        <v>7.231444971375421</v>
+        <v>21.49354807565182</v>
       </c>
       <c r="D22">
-        <v>10.72653260443725</v>
+        <v>9.644166674597495</v>
       </c>
       <c r="E22">
-        <v>8.868193014011364</v>
+        <v>38.72718740655132</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.100574188572829</v>
+        <v>31.18553610924869</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.639136277434866</v>
       </c>
       <c r="I22">
-        <v>18.75677839498014</v>
+        <v>4.397840108358386</v>
       </c>
       <c r="J22">
-        <v>4.702502658410237</v>
+        <v>9.341240332477717</v>
       </c>
       <c r="K22">
-        <v>14.79077375245403</v>
+        <v>11.91294429125941</v>
       </c>
       <c r="L22">
-        <v>8.761664526811865</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.91914039846376</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>20.75401318153071</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.63465641126025</v>
+      </c>
+      <c r="Q22">
+        <v>17.07963321516839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.3593320046711</v>
+        <v>26.43700947149259</v>
       </c>
       <c r="C23">
-        <v>7.134210609558666</v>
+        <v>21.11501729417678</v>
       </c>
       <c r="D23">
-        <v>10.6108348367953</v>
+        <v>9.459752353297564</v>
       </c>
       <c r="E23">
-        <v>8.827603141367796</v>
+        <v>38.03070328032824</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.102780615239431</v>
+        <v>30.68700778587287</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.536521647261598</v>
       </c>
       <c r="I23">
-        <v>18.7538083859641</v>
+        <v>4.330114017274014</v>
       </c>
       <c r="J23">
-        <v>4.711416479206796</v>
+        <v>9.279152475814998</v>
       </c>
       <c r="K23">
-        <v>14.51667856242203</v>
+        <v>11.90738224082278</v>
       </c>
       <c r="L23">
-        <v>8.689606946745242</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.01232137251233</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>20.69522778654894</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.64140396982451</v>
+      </c>
+      <c r="Q23">
+        <v>16.88681415631227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.09429398576198</v>
+        <v>24.51821766868422</v>
       </c>
       <c r="C24">
-        <v>6.754930495744485</v>
+        <v>19.66998616788269</v>
       </c>
       <c r="D24">
-        <v>10.17251145120882</v>
+        <v>8.732537675168142</v>
       </c>
       <c r="E24">
-        <v>8.680347909039607</v>
+        <v>35.28327874255015</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.111274084635126</v>
+        <v>28.69370432062251</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.139828613485859</v>
       </c>
       <c r="I24">
-        <v>18.76987548855893</v>
+        <v>4.072820382681879</v>
       </c>
       <c r="J24">
-        <v>4.745986960090512</v>
+        <v>9.036117369583549</v>
       </c>
       <c r="K24">
-        <v>13.43455931589693</v>
+        <v>11.86968936329402</v>
       </c>
       <c r="L24">
-        <v>8.419064893225919</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.36850137703641</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>20.50327394112397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.68230559220912</v>
+      </c>
+      <c r="Q24">
+        <v>16.12447033403691</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.64037931086365</v>
+        <v>22.26141839507139</v>
       </c>
       <c r="C25">
-        <v>6.322697914590828</v>
+        <v>17.99626510355678</v>
       </c>
       <c r="D25">
-        <v>9.701385792010283</v>
+        <v>7.885747015565696</v>
       </c>
       <c r="E25">
-        <v>8.535298933565679</v>
+        <v>32.08541902084284</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.120755568159937</v>
+        <v>26.45823932214097</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.695109345223716</v>
       </c>
       <c r="I25">
-        <v>18.84112223718029</v>
+        <v>3.787488027359863</v>
       </c>
       <c r="J25">
-        <v>4.785076409976961</v>
+        <v>8.785470793140156</v>
       </c>
       <c r="K25">
-        <v>12.17163810625592</v>
+        <v>11.86069925343202</v>
       </c>
       <c r="L25">
-        <v>8.133273826195994</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.76080206422365</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>20.35781527273238</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.73826513542298</v>
+      </c>
+      <c r="Q25">
+        <v>15.30112522974852</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.47963606982926</v>
+        <v>20.19905385723044</v>
       </c>
       <c r="C2">
-        <v>16.58698148368</v>
+        <v>16.98319277741426</v>
       </c>
       <c r="D2">
-        <v>7.207505188194426</v>
+        <v>7.202474165500061</v>
       </c>
       <c r="E2">
-        <v>29.52888021752891</v>
+        <v>29.47475636565705</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>24.86051686596281</v>
+        <v>23.69467461042142</v>
       </c>
       <c r="H2">
-        <v>3.353284724507907</v>
+        <v>3.320626170764599</v>
       </c>
       <c r="I2">
-        <v>3.566543264597459</v>
+        <v>3.521938603177325</v>
       </c>
       <c r="J2">
-        <v>8.6319806270689</v>
+        <v>9.195420499260383</v>
       </c>
       <c r="K2">
-        <v>11.92726166041417</v>
+        <v>11.68483683972676</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.03750901298705</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.358168578165943</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>11.77676284559585</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.74849891874743</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>11.87087721616639</v>
+      </c>
+      <c r="S2">
+        <v>14.50717644049716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.14669800049873</v>
+        <v>18.91752822228681</v>
       </c>
       <c r="C3">
-        <v>15.61270853264726</v>
+        <v>15.91747120009093</v>
       </c>
       <c r="D3">
-        <v>6.712840689119743</v>
+        <v>6.709159556954067</v>
       </c>
       <c r="E3">
-        <v>27.66726748922138</v>
+        <v>27.6239204026922</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>23.67850105927601</v>
+        <v>22.58739703620684</v>
       </c>
       <c r="H3">
-        <v>3.110754576008857</v>
+        <v>3.085049553368422</v>
       </c>
       <c r="I3">
-        <v>3.413295079918757</v>
+        <v>3.385823823236598</v>
       </c>
       <c r="J3">
-        <v>8.522086818873291</v>
+        <v>9.085294569275513</v>
       </c>
       <c r="K3">
-        <v>11.95734375625363</v>
+        <v>11.74911699503145</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.19242922547235</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.268134741576802</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>11.81578712162022</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.34800788987545</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>11.88175855737632</v>
+      </c>
+      <c r="S3">
+        <v>14.15515406254831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.27663076766517</v>
+        <v>18.08079021512534</v>
       </c>
       <c r="C4">
-        <v>14.98612069895862</v>
+        <v>15.23115885261979</v>
       </c>
       <c r="D4">
-        <v>6.391691977124646</v>
+        <v>6.388784237055653</v>
       </c>
       <c r="E4">
-        <v>26.4610037570557</v>
+        <v>26.4245110039513</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>22.93453606501861</v>
+        <v>21.89115558311064</v>
       </c>
       <c r="H4">
-        <v>2.95661474264841</v>
+        <v>2.935264142355737</v>
       </c>
       <c r="I4">
-        <v>3.316566253965984</v>
+        <v>3.300001713036252</v>
       </c>
       <c r="J4">
-        <v>8.457220238159525</v>
+        <v>9.01791744897597</v>
       </c>
       <c r="K4">
-        <v>11.98100118554025</v>
+        <v>11.79209224140333</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.2894641916556</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.239310042511708</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>11.84259815999431</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.10311444347577</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>11.89165239157622</v>
+      </c>
+      <c r="S4">
+        <v>13.93938951318697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.90394052378998</v>
+        <v>17.72214688936952</v>
       </c>
       <c r="C5">
-        <v>14.73289513701109</v>
+        <v>14.95285915446855</v>
       </c>
       <c r="D5">
-        <v>6.256393079202338</v>
+        <v>6.253788616546471</v>
       </c>
       <c r="E5">
-        <v>25.95332466882279</v>
+        <v>25.91970598501708</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>22.61392044150255</v>
+        <v>21.59020689172423</v>
       </c>
       <c r="H5">
-        <v>2.892328991934491</v>
+        <v>2.87278167946959</v>
       </c>
       <c r="I5">
-        <v>3.276707946553331</v>
+        <v>3.264927845308679</v>
       </c>
       <c r="J5">
-        <v>8.429171415693903</v>
+        <v>8.988347799995918</v>
       </c>
       <c r="K5">
-        <v>11.98674989898271</v>
+        <v>11.80550123768037</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.32519946180796</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.231119092093804</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>11.85536499113454</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.99797312717295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>11.89768581059623</v>
+      </c>
+      <c r="S5">
+        <v>13.84598606089086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.83501563007329</v>
+        <v>17.65559706172423</v>
       </c>
       <c r="C6">
-        <v>14.7016467296874</v>
+        <v>14.91758564564731</v>
       </c>
       <c r="D6">
-        <v>6.233637628475242</v>
+        <v>6.231083757540879</v>
       </c>
       <c r="E6">
-        <v>25.86777974314934</v>
+        <v>25.8346565782929</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>22.54423076495057</v>
+        <v>21.52358373636721</v>
       </c>
       <c r="H6">
-        <v>2.881406964229789</v>
+        <v>2.862167669878098</v>
       </c>
       <c r="I6">
-        <v>3.270504898854232</v>
+        <v>3.259855410652707</v>
       </c>
       <c r="J6">
-        <v>8.421775779531975</v>
+        <v>8.980772339852285</v>
       </c>
       <c r="K6">
-        <v>11.9815054485148</v>
+        <v>11.80174697633729</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.32592204144147</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.226307981926669</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>11.8589301088429</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.97356585904662</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>11.90022270099859</v>
+      </c>
+      <c r="S6">
+        <v>13.82358717027074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.25498219585465</v>
+        <v>18.05323090015034</v>
       </c>
       <c r="C7">
-        <v>15.01275340282757</v>
+        <v>15.24760907831344</v>
       </c>
       <c r="D7">
-        <v>6.389824392073192</v>
+        <v>6.386871526652328</v>
       </c>
       <c r="E7">
-        <v>26.4534563470398</v>
+        <v>26.41638880275656</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>22.88668151057777</v>
+        <v>21.94643341228667</v>
       </c>
       <c r="H7">
-        <v>2.955306939905619</v>
+        <v>2.933618144522768</v>
       </c>
       <c r="I7">
-        <v>3.317008848401862</v>
+        <v>3.30081102776713</v>
       </c>
       <c r="J7">
-        <v>8.449285564690557</v>
+        <v>8.962055309071591</v>
       </c>
       <c r="K7">
-        <v>11.96393325063031</v>
+        <v>11.77007264852727</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.27103292370998</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.224242332617708</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>11.84667029948278</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.08281785108796</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>11.89746818221004</v>
+      </c>
+      <c r="S7">
+        <v>13.9067796882246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.01034890519558</v>
+        <v>19.72835228678884</v>
       </c>
       <c r="C8">
-        <v>16.29401352508654</v>
+        <v>16.62804697061296</v>
       </c>
       <c r="D8">
-        <v>7.040459251458493</v>
+        <v>7.035732242368644</v>
       </c>
       <c r="E8">
-        <v>28.8991858033263</v>
+        <v>28.8468219775555</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>24.40260472363926</v>
+        <v>23.585968692869</v>
       </c>
       <c r="H8">
-        <v>3.270172007462651</v>
+        <v>3.238737742385259</v>
       </c>
       <c r="I8">
-        <v>3.515214836445292</v>
+        <v>3.475791755448737</v>
       </c>
       <c r="J8">
-        <v>8.583716710460443</v>
+        <v>8.991209635782512</v>
       </c>
       <c r="K8">
-        <v>11.91382945432612</v>
+        <v>11.66564332382315</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.05867130839697</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.289955227637146</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>11.79508552485653</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.58608984859046</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>11.88540239764215</v>
+      </c>
+      <c r="S8">
+        <v>14.32102085381906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.0712321655221</v>
+        <v>22.66787731755821</v>
       </c>
       <c r="C9">
-        <v>18.53059287475868</v>
+        <v>19.06796981845805</v>
       </c>
       <c r="D9">
-        <v>8.17956101153686</v>
+        <v>8.171031946070588</v>
       </c>
       <c r="E9">
-        <v>33.19530003330215</v>
+        <v>33.11668004467654</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.28872057500183</v>
+        <v>26.34764172338405</v>
       </c>
       <c r="H9">
-        <v>3.847957713220265</v>
+        <v>3.799352030247585</v>
       </c>
       <c r="I9">
-        <v>3.882713933638337</v>
+        <v>3.801356074575726</v>
       </c>
       <c r="J9">
-        <v>8.881256584840516</v>
+        <v>9.237132106729593</v>
       </c>
       <c r="K9">
-        <v>11.89046712443428</v>
+        <v>11.5411254754542</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.69721217677864</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.661203133303386</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.70985246103376</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.6091603633821</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>11.87418012803561</v>
+      </c>
+      <c r="S9">
+        <v>15.21229970216319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.02238958911985</v>
+        <v>24.51473979497587</v>
       </c>
       <c r="C10">
-        <v>19.98128339324571</v>
+        <v>20.59669297602573</v>
       </c>
       <c r="D10">
-        <v>8.933894426674911</v>
+        <v>8.921909306766434</v>
       </c>
       <c r="E10">
-        <v>35.17096928489316</v>
+        <v>35.07092441617966</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>29.06908640932608</v>
+        <v>28.53869112511137</v>
       </c>
       <c r="H10">
-        <v>4.212081400652386</v>
+        <v>4.149868594237958</v>
       </c>
       <c r="I10">
-        <v>4.135037929077823</v>
+        <v>4.02329002933508</v>
       </c>
       <c r="J10">
-        <v>9.069442397309313</v>
+        <v>9.122543001726164</v>
       </c>
       <c r="K10">
-        <v>11.84473511787731</v>
+        <v>11.38770138318708</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.38646282466262</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.965175176863095</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.68351064668218</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>16.25350132043664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.9145223602057</v>
+      </c>
+      <c r="S10">
+        <v>15.70078040166292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.45478587806164</v>
+        <v>24.89219089631952</v>
       </c>
       <c r="C11">
-        <v>20.10360834037191</v>
+        <v>20.60883891770282</v>
       </c>
       <c r="D11">
-        <v>9.251678355160042</v>
+        <v>9.238070009675525</v>
       </c>
       <c r="E11">
-        <v>28.5648226483723</v>
+        <v>28.45023244548341</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27.98966073015002</v>
+        <v>28.54556937389305</v>
       </c>
       <c r="H11">
-        <v>4.556974249766365</v>
+        <v>4.496988986092503</v>
       </c>
       <c r="I11">
-        <v>4.193592266914663</v>
+        <v>4.072521070026931</v>
       </c>
       <c r="J11">
-        <v>8.802696444849929</v>
+        <v>8.359099827662995</v>
       </c>
       <c r="K11">
-        <v>11.35893370385906</v>
+        <v>10.87377630692255</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.974456731204683</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.678697545352871</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.85122441239398</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>15.68684001472474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.12845140098188</v>
+      </c>
+      <c r="S11">
+        <v>15.0096059039007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.44467525979717</v>
+        <v>24.87323456231648</v>
       </c>
       <c r="C12">
-        <v>19.87903519441069</v>
+        <v>20.3033079173737</v>
       </c>
       <c r="D12">
-        <v>9.366634212544152</v>
+        <v>9.352582104261586</v>
       </c>
       <c r="E12">
-        <v>22.62330521915285</v>
+        <v>22.49654064165063</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.74366839733255</v>
+        <v>27.84290497339803</v>
       </c>
       <c r="H12">
-        <v>5.351364296640035</v>
+        <v>5.301586973028226</v>
       </c>
       <c r="I12">
-        <v>4.193960127734407</v>
+        <v>4.070802879425578</v>
       </c>
       <c r="J12">
-        <v>8.541425674687535</v>
+        <v>7.923728774891072</v>
       </c>
       <c r="K12">
-        <v>10.98014217816629</v>
+        <v>10.51773754038181</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.731616752815732</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.400593479963336</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.99744057886987</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>15.08509359397359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.29180696948415</v>
+      </c>
+      <c r="S12">
+        <v>14.37674620644328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.07519579460754</v>
+        <v>24.54141575148312</v>
       </c>
       <c r="C13">
-        <v>19.40488869870515</v>
+        <v>19.78354519603094</v>
       </c>
       <c r="D13">
-        <v>9.336210401163303</v>
+        <v>9.322744190966196</v>
       </c>
       <c r="E13">
-        <v>16.73086363103362</v>
+        <v>16.58965459694013</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.20133852083334</v>
+        <v>26.25745326042111</v>
       </c>
       <c r="H13">
-        <v>6.363423652943279</v>
+        <v>6.324985055290158</v>
       </c>
       <c r="I13">
-        <v>4.151747123314751</v>
+        <v>4.034058480409143</v>
       </c>
       <c r="J13">
-        <v>8.254941400802988</v>
+        <v>7.765807348523482</v>
       </c>
       <c r="K13">
-        <v>10.63503456373997</v>
+        <v>10.24769104837827</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.581684454343133</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.103099492775531</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.13821250097882</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>14.3822541169588</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.42142657278964</v>
+      </c>
+      <c r="S13">
+        <v>13.74095331543894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.6455891675068</v>
+        <v>24.15916157410153</v>
       </c>
       <c r="C14">
-        <v>18.9625718086705</v>
+        <v>19.32365853154597</v>
       </c>
       <c r="D14">
-        <v>9.248943342642706</v>
+        <v>9.23632747281977</v>
       </c>
       <c r="E14">
-        <v>12.70301459793166</v>
+        <v>12.54530788835632</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>23.95780604585717</v>
+        <v>24.72491989890534</v>
       </c>
       <c r="H14">
-        <v>7.158533910036033</v>
+        <v>7.12721087884071</v>
       </c>
       <c r="I14">
-        <v>4.104186794457821</v>
+        <v>3.993894403912613</v>
       </c>
       <c r="J14">
-        <v>8.040488102161833</v>
+        <v>7.76186785440489</v>
       </c>
       <c r="K14">
-        <v>10.40711601979935</v>
+        <v>10.09272537495048</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.511334367240062</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.884345502280505</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.23506088607038</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.83495059572749</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.49737843016708</v>
+      </c>
+      <c r="S14">
+        <v>13.28358407410602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.45684838424361</v>
+        <v>23.99125417617382</v>
       </c>
       <c r="C15">
-        <v>18.80821171176283</v>
+        <v>19.17094163083279</v>
       </c>
       <c r="D15">
-        <v>9.196228588840915</v>
+        <v>9.184029813280068</v>
       </c>
       <c r="E15">
-        <v>11.74216674309054</v>
+        <v>11.58064632466612</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>23.57538516514542</v>
+        <v>24.16072973970552</v>
       </c>
       <c r="H15">
-        <v>7.341934259161111</v>
+        <v>7.312535330189286</v>
       </c>
       <c r="I15">
-        <v>4.083575992767972</v>
+        <v>3.977138379207237</v>
       </c>
       <c r="J15">
-        <v>7.981366364046496</v>
+        <v>7.805450997849866</v>
       </c>
       <c r="K15">
-        <v>10.35452420515706</v>
+        <v>10.06668673618579</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.507028418462795</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.82330644025568</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.25842439720777</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.67482685414782</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.51010023358681</v>
+      </c>
+      <c r="S15">
+        <v>13.16376040373599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.70056993974801</v>
+        <v>23.31490348114146</v>
       </c>
       <c r="C16">
-        <v>18.29220933707376</v>
+        <v>18.69956960900829</v>
       </c>
       <c r="D16">
-        <v>8.892804660384506</v>
+        <v>8.882514906527344</v>
       </c>
       <c r="E16">
-        <v>11.63887935928558</v>
+        <v>11.49690374738343</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>23.00897613881436</v>
+        <v>22.67569037215672</v>
       </c>
       <c r="H16">
-        <v>7.066790364707416</v>
+        <v>7.041072031829049</v>
       </c>
       <c r="I16">
-        <v>3.986853342373454</v>
+        <v>3.896292933819264</v>
       </c>
       <c r="J16">
-        <v>7.949238718255907</v>
+        <v>8.210802184814167</v>
       </c>
       <c r="K16">
-        <v>10.43671358762533</v>
+        <v>10.21935330490738</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.656596215811271</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.796506390798253</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.23138967763987</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.50436071116869</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.43525532587116</v>
+      </c>
+      <c r="S16">
+        <v>13.14599840226486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.34649273705871</v>
+        <v>22.98945661349715</v>
       </c>
       <c r="C17">
-        <v>18.13515565752363</v>
+        <v>18.57489650458665</v>
       </c>
       <c r="D17">
-        <v>8.703504009641302</v>
+        <v>8.694130951470001</v>
       </c>
       <c r="E17">
-        <v>13.7257950890393</v>
+        <v>13.60690565998572</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>23.26333961152386</v>
+        <v>22.51031125079499</v>
       </c>
       <c r="H17">
-        <v>6.382974452387195</v>
+        <v>6.356759008274287</v>
       </c>
       <c r="I17">
-        <v>3.937345795490885</v>
+        <v>3.854612587036399</v>
       </c>
       <c r="J17">
-        <v>8.04036889528321</v>
+        <v>8.481621465486079</v>
       </c>
       <c r="K17">
-        <v>10.61921282380198</v>
+        <v>10.41276891363539</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.813346064742994</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.883611976910744</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.1612554798097</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.67266691607907</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.34426379145931</v>
+      </c>
+      <c r="S17">
+        <v>13.36666835795859</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.32368469451091</v>
+        <v>22.96343755501932</v>
       </c>
       <c r="C18">
-        <v>18.26035749675778</v>
+        <v>18.74280311043852</v>
       </c>
       <c r="D18">
-        <v>8.595185743765168</v>
+        <v>8.586111283314043</v>
       </c>
       <c r="E18">
-        <v>18.25434743505486</v>
+        <v>18.15536539132446</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>24.28204403937147</v>
+        <v>23.31460270748565</v>
       </c>
       <c r="H18">
-        <v>5.359901338525075</v>
+        <v>5.328692421711165</v>
       </c>
       <c r="I18">
-        <v>3.923779400839141</v>
+        <v>3.842229252731803</v>
       </c>
       <c r="J18">
-        <v>8.250571080663022</v>
+        <v>8.749074665197902</v>
       </c>
       <c r="K18">
-        <v>10.9205933149101</v>
+        <v>10.68681783796294</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.01209628586716</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.091533733521218</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.04329993387646</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.16038705456644</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.22007297004895</v>
+      </c>
+      <c r="S18">
+        <v>13.85120393302688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.54759008317301</v>
+        <v>23.1629442290241</v>
       </c>
       <c r="C19">
-        <v>18.65395566732568</v>
+        <v>19.19161769655024</v>
       </c>
       <c r="D19">
-        <v>8.561786586484137</v>
+        <v>8.552525411239861</v>
       </c>
       <c r="E19">
-        <v>24.50491250781452</v>
+        <v>24.4160896989679</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>25.75217079187298</v>
+        <v>24.674115700762</v>
       </c>
       <c r="H19">
-        <v>4.399003280783201</v>
+        <v>4.357875412756009</v>
       </c>
       <c r="I19">
-        <v>3.9491157158437</v>
+        <v>3.865303771615362</v>
       </c>
       <c r="J19">
-        <v>8.525928498377322</v>
+        <v>9.015591000666085</v>
       </c>
       <c r="K19">
-        <v>11.27077417640201</v>
+        <v>10.98683355072421</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.21864122720327</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.359312928923912</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.90826377800493</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.8305393991214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.08840905588372</v>
+      </c>
+      <c r="S19">
+        <v>14.48485603463331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.48381286341509</v>
+        <v>24.0201628751491</v>
       </c>
       <c r="C20">
-        <v>19.68064642793205</v>
+        <v>20.30587098436039</v>
       </c>
       <c r="D20">
-        <v>8.740990074699031</v>
+        <v>8.730167312178342</v>
       </c>
       <c r="E20">
-        <v>34.62258321572156</v>
+        <v>34.53000566724583</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>28.48835986006061</v>
+        <v>27.55175900425818</v>
       </c>
       <c r="H20">
-        <v>4.114218424273109</v>
+        <v>4.056719756604833</v>
       </c>
       <c r="I20">
-        <v>4.073953659573813</v>
+        <v>3.974605737785309</v>
       </c>
       <c r="J20">
-        <v>8.995451509600763</v>
+        <v>9.289844242430354</v>
       </c>
       <c r="K20">
-        <v>11.79931964943899</v>
+        <v>11.39526319925118</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.44679472945373</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.850494539943938</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.70447036121003</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>16.02829961162352</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.91199825727311</v>
+      </c>
+      <c r="S20">
+        <v>15.55768691371969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.98539091609851</v>
+        <v>25.35181099871825</v>
       </c>
       <c r="C21">
-        <v>20.82945255710524</v>
+        <v>21.37406456228583</v>
       </c>
       <c r="D21">
-        <v>9.296052305476392</v>
+        <v>9.281232463234975</v>
       </c>
       <c r="E21">
-        <v>37.41172221062698</v>
+        <v>37.29388606993655</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>30.17379523436164</v>
+        <v>31.06783169237371</v>
       </c>
       <c r="H21">
-        <v>4.445458386112781</v>
+        <v>4.371456995445971</v>
       </c>
       <c r="I21">
-        <v>4.274184366363682</v>
+        <v>4.142457334793192</v>
       </c>
       <c r="J21">
-        <v>9.21008070368145</v>
+        <v>8.456316024431992</v>
       </c>
       <c r="K21">
-        <v>11.86631346153158</v>
+        <v>11.25522143781716</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.19923471073428</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.083042238988209</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.65842163021578</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>16.68277305495478</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>11.95587701754214</v>
+      </c>
+      <c r="S21">
+        <v>15.87330937816719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.91471083308245</v>
+        <v>26.17078814234233</v>
       </c>
       <c r="C22">
-        <v>21.49354807565182</v>
+        <v>21.97376801829912</v>
       </c>
       <c r="D22">
-        <v>9.644166674597495</v>
+        <v>9.626598606511186</v>
       </c>
       <c r="E22">
-        <v>38.72718740655132</v>
+        <v>38.59307224722667</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>31.18553610924869</v>
+        <v>33.34035861600952</v>
       </c>
       <c r="H22">
-        <v>4.639136277434866</v>
+        <v>4.554687640327422</v>
       </c>
       <c r="I22">
-        <v>4.397840108358386</v>
+        <v>4.244470184527464</v>
       </c>
       <c r="J22">
-        <v>9.341240332477717</v>
+        <v>7.886920493618186</v>
       </c>
       <c r="K22">
-        <v>11.91294429125941</v>
+        <v>11.15683237077628</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.0349217239005</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.237685011321496</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.63465641126025</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>17.07963321516839</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.99492407700468</v>
+      </c>
+      <c r="S22">
+        <v>16.03928517107997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.43700947149259</v>
+        <v>25.76336353262562</v>
       </c>
       <c r="C23">
-        <v>21.11501729417678</v>
+        <v>21.64937938798524</v>
       </c>
       <c r="D23">
-        <v>9.459752353297564</v>
+        <v>9.443793514882854</v>
       </c>
       <c r="E23">
-        <v>38.03070328032824</v>
+        <v>37.90623658940199</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>30.68700778587287</v>
+        <v>31.96098525737697</v>
       </c>
       <c r="H23">
-        <v>4.536521647261598</v>
+        <v>4.458261060254749</v>
       </c>
       <c r="I23">
-        <v>4.330114017274014</v>
+        <v>4.188066033568399</v>
       </c>
       <c r="J23">
-        <v>9.279152475814998</v>
+        <v>8.297707198218953</v>
       </c>
       <c r="K23">
-        <v>11.90738224082278</v>
+        <v>11.24259895691295</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.14201822378099</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.186148821712371</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.64140396982451</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>16.88681415631227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>11.96215482439239</v>
+      </c>
+      <c r="S23">
+        <v>15.99839434927151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.51821766868422</v>
+        <v>24.05304137159839</v>
       </c>
       <c r="C24">
-        <v>19.66998616788269</v>
+        <v>20.30071803256011</v>
       </c>
       <c r="D24">
-        <v>8.732537675168142</v>
+        <v>8.721704276513201</v>
       </c>
       <c r="E24">
-        <v>35.28327874255015</v>
+        <v>35.1907701503869</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>28.69370432062251</v>
+        <v>27.73440557644153</v>
       </c>
       <c r="H24">
-        <v>4.139828613485859</v>
+        <v>4.082123794595959</v>
       </c>
       <c r="I24">
-        <v>4.072820382681879</v>
+        <v>3.971427213707074</v>
       </c>
       <c r="J24">
-        <v>9.036117369583549</v>
+        <v>9.33526951146936</v>
       </c>
       <c r="K24">
-        <v>11.86968936329402</v>
+        <v>11.45940776503877</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.49130105618675</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.905199163569588</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.68230559220912</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>16.12447033403691</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.8886786600237</v>
+      </c>
+      <c r="S24">
+        <v>15.6518650051858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.26141839507139</v>
+        <v>21.89690888284369</v>
       </c>
       <c r="C25">
-        <v>17.99626510355678</v>
+        <v>18.49480959332985</v>
       </c>
       <c r="D25">
-        <v>7.885747015565696</v>
+        <v>7.87839572166025</v>
       </c>
       <c r="E25">
-        <v>32.08541902084284</v>
+        <v>32.01463441290556</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>26.45823932214097</v>
+        <v>25.41994753247411</v>
       </c>
       <c r="H25">
-        <v>3.695109345223716</v>
+        <v>3.65160508701729</v>
       </c>
       <c r="I25">
-        <v>3.787488027359863</v>
+        <v>3.719408321557681</v>
       </c>
       <c r="J25">
-        <v>8.785470793140156</v>
+        <v>9.223785599376852</v>
       </c>
       <c r="K25">
-        <v>11.86069925343202</v>
+        <v>11.55024427578457</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.77889331203793</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.521429669036953</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,10 +1832,16 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.73826513542298</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.30112522974852</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.88029673565609</v>
+      </c>
+      <c r="S25">
+        <v>14.95729033038603</v>
       </c>
     </row>
   </sheetData>
